--- a/02_Proyecto/12. Métricas/02_Metricas.xlsx
+++ b/02_Proyecto/12. Métricas/02_Metricas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\2567_G7_ACSW\02_Proyecto\12. Métricas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALMACENAMIENTO\SEPTIMO\ASEG CALIDAD\proyecto\2567_G7_ACSW\02_Proyecto\12. Métricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6AD70-70DC-448E-985B-2E5A352F4CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9936F1-07BE-4D7D-805B-6E8B0716D7AC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,12 @@
     <sheet name="CuadernoTrabajo" sheetId="8" r:id="rId7"/>
     <sheet name="Estimación semanal" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="241">
   <si>
     <t>EL TAMAÑO DEL PRODUCTO</t>
   </si>
@@ -38,6 +38,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Tabla 6.2</t>
     </r>
@@ -46,6 +47,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. Tiempos de desarrollo de Sistema de Gestión de Hotel</t>
     </r>
@@ -105,6 +107,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Tabla 6.3</t>
     </r>
@@ -113,6 +116,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. Rangos de tamañO de programas</t>
     </r>
@@ -232,6 +236,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Tabla 6.4.</t>
     </r>
@@ -240,6 +245,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Formulario para estimar el tamaño del programa. </t>
     </r>
@@ -680,18 +686,9 @@
     <t>CUADERNO DE TRABAJO  Nª1</t>
   </si>
   <si>
-    <t>Código monolítico difícil de modificar sin afectar otras partes.</t>
-  </si>
-  <si>
     <t>Descripción:</t>
   </si>
   <si>
-    <t>Mantenimieto</t>
-  </si>
-  <si>
-    <t>Codificacion</t>
-  </si>
-  <si>
     <t>Defecto Corregido</t>
   </si>
   <si>
@@ -728,9 +725,6 @@
     <t>En la sección de la lógica de las reservas no se consideran casos especiales, como reservas superpuestas, doble reserva, cancelaciones o cambios.</t>
   </si>
   <si>
-    <t>Falla en la lógica de retorno del panel principal y secundarios</t>
-  </si>
-  <si>
     <t>Error al observar la interfaz en varios dispositivos, no tiene implementado el diseño responsivo</t>
   </si>
   <si>
@@ -746,15 +740,9 @@
     <t>Los campos de los formularios no estan validados, lo que se desea  realizar  es validar cada uno de los campos de todos los formularios y así evitar inyecciones sql a la base de datos.</t>
   </si>
   <si>
-    <t>Los campos del formulario de registro están con un diseño muy básico y no está presentable.</t>
-  </si>
-  <si>
     <t>T. Corrección (minutos)</t>
   </si>
   <si>
-    <t>Hotel Cielo Azul</t>
-  </si>
-  <si>
     <t>Ing. Jenny Ruiz</t>
   </si>
   <si>
@@ -803,7 +791,22 @@
     <t>Tipos de defectos</t>
   </si>
   <si>
-    <t>0,6</t>
+    <t>Gestiòn de Reservas Hotel Cielo Azul</t>
+  </si>
+  <si>
+    <t>Falla en la lógica de retorno del panel principal y secundarios.</t>
+  </si>
+  <si>
+    <t>Se detecta errores en la compilaciòn del aplicativo por falta de reutilizaciòn de còdigo, lo que generea erorres de warnig y mucho tiempo de compilación.</t>
+  </si>
+  <si>
+    <t>Los campos del formulario de registro están con un diseño minimalista, por lo que se realiza cambios en el diseño css para una interfaz más llamativa.</t>
+  </si>
+  <si>
+    <t>Compilación</t>
+  </si>
+  <si>
+    <t>Codificación</t>
   </si>
 </sst>
 </file>
@@ -828,28 +831,33 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -871,7 +879,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Book Antiqua"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -918,7 +926,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -2309,6 +2317,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2392,47 +2418,29 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2656,11 +2664,11 @@
   </sheetPr>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -2669,79 +2677,79 @@
     <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D2" s="152" t="s">
+    <row r="2" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="147"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="152" t="s">
+      <c r="E2" s="153"/>
+    </row>
+    <row r="3" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="148" t="s">
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+    </row>
+    <row r="4" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="154" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="151">
+      <c r="G4" s="157">
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="149"/>
+    <row r="5" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="155"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="150"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+    </row>
+    <row r="6" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="156"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="145" t="s">
+    <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="147"/>
-    </row>
-    <row r="9" spans="2:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="153"/>
+    </row>
+    <row r="9" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
@@ -2765,8 +2773,8 @@
       <c r="E10" s="3">
         <v>25</v>
       </c>
-      <c r="F10" s="184" t="s">
-        <v>241</v>
+      <c r="F10" s="145">
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -2779,7 +2787,7 @@
       <c r="E11" s="3">
         <v>31</v>
       </c>
-      <c r="F11" s="185">
+      <c r="F11" s="146">
         <v>0.96774193549999998</v>
       </c>
     </row>
@@ -2793,7 +2801,7 @@
       <c r="E12" s="3">
         <v>74</v>
       </c>
-      <c r="F12" s="185">
+      <c r="F12" s="146">
         <v>0.40540540539999997</v>
       </c>
     </row>
@@ -2807,7 +2815,7 @@
       <c r="E13" s="3">
         <v>87</v>
       </c>
-      <c r="F13" s="185">
+      <c r="F13" s="146">
         <v>0.40229885059999998</v>
       </c>
     </row>
@@ -2821,7 +2829,7 @@
       <c r="E14" s="3">
         <v>61</v>
       </c>
-      <c r="F14" s="185">
+      <c r="F14" s="146">
         <v>0.32786885249999997</v>
       </c>
     </row>
@@ -2835,7 +2843,7 @@
       <c r="E15" s="3">
         <v>102</v>
       </c>
-      <c r="F15" s="185">
+      <c r="F15" s="146">
         <v>0.3921568627</v>
       </c>
     </row>
@@ -2849,7 +2857,7 @@
       <c r="E16" s="3">
         <v>77</v>
       </c>
-      <c r="F16" s="185">
+      <c r="F16" s="146">
         <v>0.3896103896</v>
       </c>
     </row>
@@ -2863,7 +2871,7 @@
       <c r="E17" s="3">
         <v>145</v>
       </c>
-      <c r="F17" s="185">
+      <c r="F17" s="146">
         <v>0.55172413789999997</v>
       </c>
     </row>
@@ -2877,7 +2885,7 @@
       <c r="E18" s="3">
         <v>56</v>
       </c>
-      <c r="F18" s="185">
+      <c r="F18" s="146">
         <v>0.26785714290000001</v>
       </c>
     </row>
@@ -2891,7 +2899,7 @@
       <c r="E19" s="3">
         <v>61</v>
       </c>
-      <c r="F19" s="185">
+      <c r="F19" s="146">
         <v>0.2459016393</v>
       </c>
     </row>
@@ -2905,7 +2913,7 @@
       <c r="E20" s="3">
         <v>57</v>
       </c>
-      <c r="F20" s="185">
+      <c r="F20" s="146">
         <v>0.24561403509999999</v>
       </c>
     </row>
@@ -2919,7 +2927,7 @@
       <c r="E21" s="3">
         <v>15</v>
       </c>
-      <c r="F21" s="185">
+      <c r="F21" s="146">
         <v>0.46666666670000001</v>
       </c>
     </row>
@@ -2933,7 +2941,7 @@
       <c r="E22" s="3">
         <v>110</v>
       </c>
-      <c r="F22" s="185">
+      <c r="F22" s="146">
         <v>0.68181818179999998</v>
       </c>
     </row>
@@ -2947,7 +2955,7 @@
       <c r="E23" s="3">
         <v>11</v>
       </c>
-      <c r="F23" s="185">
+      <c r="F23" s="146">
         <v>0.4545454545</v>
       </c>
     </row>
@@ -2961,7 +2969,7 @@
       <c r="E24" s="3">
         <v>28</v>
       </c>
-      <c r="F24" s="185">
+      <c r="F24" s="146">
         <v>0.71428571429999999</v>
       </c>
     </row>
@@ -2975,7 +2983,7 @@
       <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="185">
+      <c r="F25" s="146">
         <v>1.6666666670000001</v>
       </c>
     </row>
@@ -2989,7 +2997,7 @@
       <c r="E26" s="3">
         <v>61</v>
       </c>
-      <c r="F26" s="185">
+      <c r="F26" s="146">
         <v>0.40983606560000002</v>
       </c>
     </row>
@@ -3003,7 +3011,7 @@
       <c r="E27" s="3">
         <v>22</v>
       </c>
-      <c r="F27" s="185">
+      <c r="F27" s="146">
         <v>0.4545454545</v>
       </c>
     </row>
@@ -3017,7 +3025,7 @@
       <c r="E28" s="3">
         <v>42</v>
       </c>
-      <c r="F28" s="185">
+      <c r="F28" s="146">
         <v>1.6666666670000001</v>
       </c>
     </row>
@@ -3031,7 +3039,7 @@
       <c r="E29" s="3">
         <v>80</v>
       </c>
-      <c r="F29" s="185">
+      <c r="F29" s="146">
         <v>0.5</v>
       </c>
     </row>
@@ -3045,7 +3053,7 @@
       <c r="E30" s="3">
         <v>61</v>
       </c>
-      <c r="F30" s="185">
+      <c r="F30" s="146">
         <v>0.81967213110000003</v>
       </c>
     </row>
@@ -3059,7 +3067,7 @@
       <c r="E31" s="3">
         <v>50</v>
       </c>
-      <c r="F31" s="185">
+      <c r="F31" s="146">
         <v>0.4</v>
       </c>
     </row>
@@ -3073,7 +3081,7 @@
       <c r="E32" s="3">
         <v>65</v>
       </c>
-      <c r="F32" s="185">
+      <c r="F32" s="146">
         <v>1.538461538</v>
       </c>
     </row>
@@ -3087,7 +3095,7 @@
       <c r="E33" s="3">
         <v>138</v>
       </c>
-      <c r="F33" s="185">
+      <c r="F33" s="146">
         <v>0.94202898550000003</v>
       </c>
     </row>
@@ -3101,7 +3109,7 @@
       <c r="E34" s="3">
         <v>19</v>
       </c>
-      <c r="F34" s="185">
+      <c r="F34" s="146">
         <v>0.52631578950000002</v>
       </c>
     </row>
@@ -3117,7 +3125,7 @@
       <c r="E35" s="6">
         <v>179</v>
       </c>
-      <c r="F35" s="185">
+      <c r="F35" s="146">
         <v>1.1173184359999999</v>
       </c>
       <c r="G35" s="5"/>
@@ -3153,7 +3161,7 @@
       <c r="E36" s="6">
         <v>188</v>
       </c>
-      <c r="F36" s="185">
+      <c r="F36" s="146">
         <v>0.85106382979999995</v>
       </c>
       <c r="G36" s="5"/>
@@ -3189,7 +3197,7 @@
       <c r="E37" s="6">
         <v>82</v>
       </c>
-      <c r="F37" s="185">
+      <c r="F37" s="146">
         <v>0.60975609760000005</v>
       </c>
       <c r="G37" s="5"/>
@@ -3225,7 +3233,7 @@
       <c r="E38" s="6">
         <v>317</v>
       </c>
-      <c r="F38" s="185">
+      <c r="F38" s="146">
         <v>0.75709779180000003</v>
       </c>
       <c r="G38" s="5"/>
@@ -3261,7 +3269,7 @@
       <c r="E39" s="6">
         <v>130</v>
       </c>
-      <c r="F39" s="185">
+      <c r="F39" s="146">
         <v>0.6153846154</v>
       </c>
       <c r="G39" s="5"/>
@@ -3297,7 +3305,7 @@
       <c r="E40" s="6">
         <v>252</v>
       </c>
-      <c r="F40" s="185">
+      <c r="F40" s="146">
         <v>0.753968254</v>
       </c>
       <c r="G40" s="5"/>
@@ -3333,7 +3341,7 @@
       <c r="E41" s="6">
         <v>7</v>
       </c>
-      <c r="F41" s="185">
+      <c r="F41" s="146">
         <v>0.71428571429999999</v>
       </c>
       <c r="G41" s="5"/>
@@ -3369,7 +3377,7 @@
       <c r="E42" s="6">
         <v>96</v>
       </c>
-      <c r="F42" s="185">
+      <c r="F42" s="146">
         <v>0.625</v>
       </c>
       <c r="G42" s="5"/>
@@ -3405,7 +3413,7 @@
       <c r="E43" s="6">
         <v>234</v>
       </c>
-      <c r="F43" s="185">
+      <c r="F43" s="146">
         <v>0.81196581199999995</v>
       </c>
       <c r="G43" s="5"/>
@@ -3441,7 +3449,7 @@
       <c r="E44" s="6">
         <v>81</v>
       </c>
-      <c r="F44" s="185">
+      <c r="F44" s="146">
         <v>0.49382716049999997</v>
       </c>
       <c r="G44" s="5"/>
@@ -3470,14 +3478,14 @@
         <v>15</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" ref="D45:F45" si="0">SUM(D10:D44)</f>
+        <f t="shared" ref="D45:E45" si="0">SUM(D10:D44)</f>
         <v>2106</v>
       </c>
       <c r="E45" s="7">
         <f t="shared" si="0"/>
         <v>3047</v>
       </c>
-      <c r="F45" s="186">
+      <c r="F45" s="147">
         <v>23.387356279999999</v>
       </c>
     </row>
@@ -3486,14 +3494,14 @@
         <v>16</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" ref="D46:F46" si="1">GEOMEAN(D10:D44)</f>
+        <f t="shared" ref="D46:E46" si="1">GEOMEAN(D10:D44)</f>
         <v>34.806915711759139</v>
       </c>
       <c r="E46" s="7">
         <f t="shared" si="1"/>
         <v>58.863549968244214</v>
       </c>
-      <c r="F46" s="186">
+      <c r="F46" s="147">
         <v>0.59131526609999996</v>
       </c>
     </row>
@@ -3523,11 +3531,11 @@
   </sheetPr>
   <dimension ref="C1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -3536,79 +3544,79 @@
     <col min="7" max="7" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="152" t="s">
+    <row r="2" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="147"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="152" t="s">
+      <c r="F2" s="153"/>
+    </row>
+    <row r="3" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C3" s="158" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="147"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="148" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="153"/>
+    </row>
+    <row r="4" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C4" s="154" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="151">
+      <c r="H4" s="157">
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="149"/>
+    <row r="5" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="155"/>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="150"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+    </row>
+    <row r="6" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C6" s="156"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="145" t="s">
+    <row r="7" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="147"/>
-    </row>
-    <row r="9" spans="3:8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+    </row>
+    <row r="9" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
@@ -3635,7 +3643,7 @@
       <c r="E10" s="3">
         <v>25</v>
       </c>
-      <c r="F10" s="184">
+      <c r="F10" s="145">
         <v>0.6</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -3652,7 +3660,7 @@
       <c r="E11" s="3">
         <v>31</v>
       </c>
-      <c r="F11" s="185">
+      <c r="F11" s="146">
         <v>0.96774193549999998</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -3669,7 +3677,7 @@
       <c r="E12" s="3">
         <v>74</v>
       </c>
-      <c r="F12" s="185">
+      <c r="F12" s="146">
         <v>0.40540540539999997</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -3686,7 +3694,7 @@
       <c r="E13" s="3">
         <v>87</v>
       </c>
-      <c r="F13" s="185">
+      <c r="F13" s="146">
         <v>0.40229885059999998</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -3703,7 +3711,7 @@
       <c r="E14" s="3">
         <v>61</v>
       </c>
-      <c r="F14" s="185">
+      <c r="F14" s="146">
         <v>0.32786885249999997</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -3720,7 +3728,7 @@
       <c r="E15" s="3">
         <v>102</v>
       </c>
-      <c r="F15" s="185">
+      <c r="F15" s="146">
         <v>0.3921568627</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -3737,7 +3745,7 @@
       <c r="E16" s="3">
         <v>77</v>
       </c>
-      <c r="F16" s="185">
+      <c r="F16" s="146">
         <v>0.3896103896</v>
       </c>
       <c r="G16" s="3" t="s">
@@ -3754,7 +3762,7 @@
       <c r="E17" s="3">
         <v>145</v>
       </c>
-      <c r="F17" s="185">
+      <c r="F17" s="146">
         <v>0.55172413789999997</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -3771,7 +3779,7 @@
       <c r="E18" s="3">
         <v>56</v>
       </c>
-      <c r="F18" s="185">
+      <c r="F18" s="146">
         <v>0.26785714290000001</v>
       </c>
       <c r="G18" s="3" t="s">
@@ -3788,7 +3796,7 @@
       <c r="E19" s="3">
         <v>61</v>
       </c>
-      <c r="F19" s="185">
+      <c r="F19" s="146">
         <v>0.2459016393</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -3805,7 +3813,7 @@
       <c r="E20" s="3">
         <v>57</v>
       </c>
-      <c r="F20" s="185">
+      <c r="F20" s="146">
         <v>0.24561403509999999</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -3822,7 +3830,7 @@
       <c r="E21" s="3">
         <v>15</v>
       </c>
-      <c r="F21" s="185">
+      <c r="F21" s="146">
         <v>0.46666666670000001</v>
       </c>
       <c r="G21" s="3" t="s">
@@ -3839,7 +3847,7 @@
       <c r="E22" s="3">
         <v>110</v>
       </c>
-      <c r="F22" s="185">
+      <c r="F22" s="146">
         <v>0.68181818179999998</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -3856,7 +3864,7 @@
       <c r="E23" s="3">
         <v>11</v>
       </c>
-      <c r="F23" s="185">
+      <c r="F23" s="146">
         <v>0.4545454545</v>
       </c>
       <c r="G23" s="3" t="s">
@@ -3873,7 +3881,7 @@
       <c r="E24" s="3">
         <v>28</v>
       </c>
-      <c r="F24" s="185">
+      <c r="F24" s="146">
         <v>0.71428571429999999</v>
       </c>
       <c r="G24" s="3" t="s">
@@ -3890,7 +3898,7 @@
       <c r="E25" s="3">
         <v>3</v>
       </c>
-      <c r="F25" s="185">
+      <c r="F25" s="146">
         <v>1.6666666670000001</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -3907,7 +3915,7 @@
       <c r="E26" s="3">
         <v>61</v>
       </c>
-      <c r="F26" s="185">
+      <c r="F26" s="146">
         <v>0.40983606560000002</v>
       </c>
       <c r="G26" s="3" t="s">
@@ -3924,7 +3932,7 @@
       <c r="E27" s="3">
         <v>22</v>
       </c>
-      <c r="F27" s="185">
+      <c r="F27" s="146">
         <v>0.4545454545</v>
       </c>
       <c r="G27" s="3" t="s">
@@ -3941,7 +3949,7 @@
       <c r="E28" s="3">
         <v>42</v>
       </c>
-      <c r="F28" s="185">
+      <c r="F28" s="146">
         <v>1.6666666670000001</v>
       </c>
       <c r="G28" s="3" t="s">
@@ -3958,7 +3966,7 @@
       <c r="E29" s="3">
         <v>80</v>
       </c>
-      <c r="F29" s="185">
+      <c r="F29" s="146">
         <v>0.5</v>
       </c>
       <c r="G29" s="3" t="s">
@@ -3975,7 +3983,7 @@
       <c r="E30" s="3">
         <v>61</v>
       </c>
-      <c r="F30" s="185">
+      <c r="F30" s="146">
         <v>0.81967213110000003</v>
       </c>
       <c r="G30" s="3" t="s">
@@ -3992,7 +4000,7 @@
       <c r="E31" s="3">
         <v>50</v>
       </c>
-      <c r="F31" s="185">
+      <c r="F31" s="146">
         <v>0.4</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -4009,7 +4017,7 @@
       <c r="E32" s="3">
         <v>65</v>
       </c>
-      <c r="F32" s="185">
+      <c r="F32" s="146">
         <v>1.538461538</v>
       </c>
       <c r="G32" s="3" t="s">
@@ -4026,7 +4034,7 @@
       <c r="E33" s="3">
         <v>138</v>
       </c>
-      <c r="F33" s="185">
+      <c r="F33" s="146">
         <v>0.94202898550000003</v>
       </c>
       <c r="G33" s="3" t="s">
@@ -4043,7 +4051,7 @@
       <c r="E34" s="3">
         <v>19</v>
       </c>
-      <c r="F34" s="185">
+      <c r="F34" s="146">
         <v>0.52631578950000002</v>
       </c>
       <c r="G34" s="3" t="s">
@@ -4060,7 +4068,7 @@
       <c r="E35" s="6">
         <v>179</v>
       </c>
-      <c r="F35" s="185">
+      <c r="F35" s="146">
         <v>1.1173184359999999</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -4077,7 +4085,7 @@
       <c r="E36" s="6">
         <v>188</v>
       </c>
-      <c r="F36" s="185">
+      <c r="F36" s="146">
         <v>0.85106382979999995</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -4094,7 +4102,7 @@
       <c r="E37" s="6">
         <v>82</v>
       </c>
-      <c r="F37" s="185">
+      <c r="F37" s="146">
         <v>0.60975609760000005</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -4111,7 +4119,7 @@
       <c r="E38" s="6">
         <v>317</v>
       </c>
-      <c r="F38" s="185">
+      <c r="F38" s="146">
         <v>0.75709779180000003</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -4128,7 +4136,7 @@
       <c r="E39" s="6">
         <v>130</v>
       </c>
-      <c r="F39" s="185">
+      <c r="F39" s="146">
         <v>0.6153846154</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -4145,7 +4153,7 @@
       <c r="E40" s="6">
         <v>252</v>
       </c>
-      <c r="F40" s="185">
+      <c r="F40" s="146">
         <v>0.753968254</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -4162,7 +4170,7 @@
       <c r="E41" s="6">
         <v>7</v>
       </c>
-      <c r="F41" s="185">
+      <c r="F41" s="146">
         <v>0.71428571429999999</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -4179,7 +4187,7 @@
       <c r="E42" s="6">
         <v>96</v>
       </c>
-      <c r="F42" s="185">
+      <c r="F42" s="146">
         <v>0.625</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -4196,7 +4204,7 @@
       <c r="E43" s="6">
         <v>234</v>
       </c>
-      <c r="F43" s="185">
+      <c r="F43" s="146">
         <v>0.81196581199999995</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -4213,7 +4221,7 @@
       <c r="E44" s="6">
         <v>81</v>
       </c>
-      <c r="F44" s="185">
+      <c r="F44" s="146">
         <v>0.49382716049999997</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -4225,34 +4233,34 @@
         <v>15</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" ref="D45:F45" si="0">SUM(D10:D44)</f>
+        <f t="shared" ref="D45:E45" si="0">SUM(D10:D44)</f>
         <v>2106</v>
       </c>
       <c r="E45" s="8">
         <f t="shared" si="0"/>
         <v>3047</v>
       </c>
-      <c r="F45" s="186">
+      <c r="F45" s="147">
         <v>23.387356279999999</v>
       </c>
-      <c r="G45" s="153"/>
+      <c r="G45" s="159"/>
     </row>
     <row r="46" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" ref="D46:F46" si="1">GEOMEAN(D10:D44)</f>
+        <f t="shared" ref="D46:E46" si="1">GEOMEAN(D10:D44)</f>
         <v>34.806915711759139</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="1"/>
         <v>58.863549968244214</v>
       </c>
-      <c r="F46" s="186">
+      <c r="F46" s="147">
         <v>0.59131526609999996</v>
       </c>
-      <c r="G46" s="150"/>
+      <c r="G46" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4280,11 +4288,11 @@
   </sheetPr>
   <dimension ref="C1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -4295,79 +4303,79 @@
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="E2" s="152" t="s">
+    <row r="2" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="E2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="147"/>
-    </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C3" s="152" t="s">
+      <c r="F2" s="153"/>
+    </row>
+    <row r="3" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C3" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="147"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C4" s="148" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="153"/>
+    </row>
+    <row r="4" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C4" s="154" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="151">
+      <c r="H4" s="157">
         <v>45698</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C5" s="149"/>
+    <row r="5" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="155"/>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="150"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+    </row>
+    <row r="6" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C6" s="156"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="156"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="145" t="s">
+    <row r="7" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="147"/>
-    </row>
-    <row r="9" spans="3:9" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="153"/>
+    </row>
+    <row r="9" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
@@ -4403,13 +4411,13 @@
       <c r="F10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="184">
+      <c r="G10" s="145">
         <v>12</v>
       </c>
-      <c r="H10" s="187">
+      <c r="H10" s="148">
         <v>15</v>
       </c>
-      <c r="I10" s="187">
+      <c r="I10" s="148">
         <v>18</v>
       </c>
     </row>
@@ -4426,13 +4434,13 @@
       <c r="F11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="185">
+      <c r="G11" s="146">
         <v>24</v>
       </c>
-      <c r="H11" s="188">
+      <c r="H11" s="149">
         <v>30</v>
       </c>
-      <c r="I11" s="188">
+      <c r="I11" s="149">
         <v>36</v>
       </c>
     </row>
@@ -4449,13 +4457,13 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="185">
+      <c r="G12" s="146">
         <v>24</v>
       </c>
-      <c r="H12" s="188">
+      <c r="H12" s="149">
         <v>30</v>
       </c>
-      <c r="I12" s="188">
+      <c r="I12" s="149">
         <v>36</v>
       </c>
     </row>
@@ -4472,13 +4480,13 @@
       <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="185">
+      <c r="G13" s="146">
         <v>28</v>
       </c>
-      <c r="H13" s="188">
+      <c r="H13" s="149">
         <v>35</v>
       </c>
-      <c r="I13" s="188">
+      <c r="I13" s="149">
         <v>42</v>
       </c>
     </row>
@@ -4495,13 +4503,13 @@
       <c r="F14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="185">
+      <c r="G14" s="146">
         <v>16</v>
       </c>
-      <c r="H14" s="188">
+      <c r="H14" s="149">
         <v>20</v>
       </c>
-      <c r="I14" s="188">
+      <c r="I14" s="149">
         <v>24</v>
       </c>
     </row>
@@ -4518,13 +4526,13 @@
       <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="185">
+      <c r="G15" s="146">
         <v>32</v>
       </c>
-      <c r="H15" s="188">
+      <c r="H15" s="149">
         <v>40</v>
       </c>
-      <c r="I15" s="188">
+      <c r="I15" s="149">
         <v>48</v>
       </c>
     </row>
@@ -4541,13 +4549,13 @@
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="185">
+      <c r="G16" s="146">
         <v>24</v>
       </c>
-      <c r="H16" s="188">
+      <c r="H16" s="149">
         <v>30</v>
       </c>
-      <c r="I16" s="188">
+      <c r="I16" s="149">
         <v>36</v>
       </c>
     </row>
@@ -4564,13 +4572,13 @@
       <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="185">
+      <c r="G17" s="146">
         <v>64</v>
       </c>
-      <c r="H17" s="188">
+      <c r="H17" s="149">
         <v>80</v>
       </c>
-      <c r="I17" s="188">
+      <c r="I17" s="149">
         <v>96</v>
       </c>
     </row>
@@ -4587,13 +4595,13 @@
       <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="185">
+      <c r="G18" s="146">
         <v>12</v>
       </c>
-      <c r="H18" s="188">
+      <c r="H18" s="149">
         <v>15</v>
       </c>
-      <c r="I18" s="188">
+      <c r="I18" s="149">
         <v>18</v>
       </c>
     </row>
@@ -4610,13 +4618,13 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="185">
+      <c r="G19" s="146">
         <v>12</v>
       </c>
-      <c r="H19" s="188">
+      <c r="H19" s="149">
         <v>15</v>
       </c>
-      <c r="I19" s="188">
+      <c r="I19" s="149">
         <v>18</v>
       </c>
     </row>
@@ -4633,13 +4641,13 @@
       <c r="F20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="185">
+      <c r="G20" s="146">
         <v>11.2</v>
       </c>
-      <c r="H20" s="188">
+      <c r="H20" s="149">
         <v>14</v>
       </c>
-      <c r="I20" s="188">
+      <c r="I20" s="149">
         <v>16.8</v>
       </c>
     </row>
@@ -4656,13 +4664,13 @@
       <c r="F21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="185">
+      <c r="G21" s="146">
         <v>5.6</v>
       </c>
-      <c r="H21" s="188">
+      <c r="H21" s="149">
         <v>7</v>
       </c>
-      <c r="I21" s="188">
+      <c r="I21" s="149">
         <v>8.4</v>
       </c>
     </row>
@@ -4679,13 +4687,13 @@
       <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="185">
+      <c r="G22" s="146">
         <v>60</v>
       </c>
-      <c r="H22" s="188">
+      <c r="H22" s="149">
         <v>75</v>
       </c>
-      <c r="I22" s="188">
+      <c r="I22" s="149">
         <v>90</v>
       </c>
     </row>
@@ -4702,13 +4710,13 @@
       <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="185">
+      <c r="G23" s="146">
         <v>4</v>
       </c>
-      <c r="H23" s="188">
+      <c r="H23" s="149">
         <v>5</v>
       </c>
-      <c r="I23" s="188">
+      <c r="I23" s="149">
         <v>6</v>
       </c>
     </row>
@@ -4725,13 +4733,13 @@
       <c r="F24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="185">
+      <c r="G24" s="146">
         <v>16</v>
       </c>
-      <c r="H24" s="188">
+      <c r="H24" s="149">
         <v>20</v>
       </c>
-      <c r="I24" s="188">
+      <c r="I24" s="149">
         <v>24</v>
       </c>
     </row>
@@ -4748,13 +4756,13 @@
       <c r="F25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="185">
+      <c r="G25" s="146">
         <v>4</v>
       </c>
-      <c r="H25" s="188">
+      <c r="H25" s="149">
         <v>5</v>
       </c>
-      <c r="I25" s="188">
+      <c r="I25" s="149">
         <v>6</v>
       </c>
     </row>
@@ -4771,13 +4779,13 @@
       <c r="F26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="185">
+      <c r="G26" s="146">
         <v>20</v>
       </c>
-      <c r="H26" s="188">
+      <c r="H26" s="149">
         <v>25</v>
       </c>
-      <c r="I26" s="188">
+      <c r="I26" s="149">
         <v>30</v>
       </c>
     </row>
@@ -4794,13 +4802,13 @@
       <c r="F27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="185">
+      <c r="G27" s="146">
         <v>8</v>
       </c>
-      <c r="H27" s="188">
+      <c r="H27" s="149">
         <v>10</v>
       </c>
-      <c r="I27" s="188">
+      <c r="I27" s="149">
         <v>12</v>
       </c>
     </row>
@@ -4817,13 +4825,13 @@
       <c r="F28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="185">
+      <c r="G28" s="146">
         <v>56</v>
       </c>
-      <c r="H28" s="188">
+      <c r="H28" s="149">
         <v>70</v>
       </c>
-      <c r="I28" s="188">
+      <c r="I28" s="149">
         <v>84</v>
       </c>
     </row>
@@ -4840,13 +4848,13 @@
       <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="185">
+      <c r="G29" s="146">
         <v>32</v>
       </c>
-      <c r="H29" s="188">
+      <c r="H29" s="149">
         <v>40</v>
       </c>
-      <c r="I29" s="188">
+      <c r="I29" s="149">
         <v>48</v>
       </c>
     </row>
@@ -4863,13 +4871,13 @@
       <c r="F30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="185">
+      <c r="G30" s="146">
         <v>40</v>
       </c>
-      <c r="H30" s="188">
+      <c r="H30" s="149">
         <v>50</v>
       </c>
-      <c r="I30" s="188">
+      <c r="I30" s="149">
         <v>60</v>
       </c>
     </row>
@@ -4886,13 +4894,13 @@
       <c r="F31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="185">
+      <c r="G31" s="146">
         <v>16</v>
       </c>
-      <c r="H31" s="188">
+      <c r="H31" s="149">
         <v>20</v>
       </c>
-      <c r="I31" s="188">
+      <c r="I31" s="149">
         <v>24</v>
       </c>
     </row>
@@ -4909,13 +4917,13 @@
       <c r="F32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="185">
+      <c r="G32" s="146">
         <v>80</v>
       </c>
-      <c r="H32" s="188">
+      <c r="H32" s="149">
         <v>100</v>
       </c>
-      <c r="I32" s="188">
+      <c r="I32" s="149">
         <v>120</v>
       </c>
     </row>
@@ -4932,13 +4940,13 @@
       <c r="F33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="185">
+      <c r="G33" s="146">
         <v>104</v>
       </c>
-      <c r="H33" s="188">
+      <c r="H33" s="149">
         <v>130</v>
       </c>
-      <c r="I33" s="188">
+      <c r="I33" s="149">
         <v>156</v>
       </c>
     </row>
@@ -4955,13 +4963,13 @@
       <c r="F34" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="185">
+      <c r="G34" s="146">
         <v>8</v>
       </c>
-      <c r="H34" s="188">
+      <c r="H34" s="149">
         <v>10</v>
       </c>
-      <c r="I34" s="188">
+      <c r="I34" s="149">
         <v>12</v>
       </c>
     </row>
@@ -4978,13 +4986,13 @@
       <c r="F35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="185">
+      <c r="G35" s="146">
         <v>160</v>
       </c>
-      <c r="H35" s="188">
+      <c r="H35" s="149">
         <v>200</v>
       </c>
-      <c r="I35" s="188">
+      <c r="I35" s="149">
         <v>240</v>
       </c>
     </row>
@@ -5001,13 +5009,13 @@
       <c r="F36" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="185">
+      <c r="G36" s="146">
         <v>128</v>
       </c>
-      <c r="H36" s="188">
+      <c r="H36" s="149">
         <v>160</v>
       </c>
-      <c r="I36" s="188">
+      <c r="I36" s="149">
         <v>192</v>
       </c>
     </row>
@@ -5024,13 +5032,13 @@
       <c r="F37" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="185">
+      <c r="G37" s="146">
         <v>40</v>
       </c>
-      <c r="H37" s="188">
+      <c r="H37" s="149">
         <v>50</v>
       </c>
-      <c r="I37" s="188">
+      <c r="I37" s="149">
         <v>60</v>
       </c>
     </row>
@@ -5047,13 +5055,13 @@
       <c r="F38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="185">
+      <c r="G38" s="146">
         <v>192</v>
       </c>
-      <c r="H38" s="188">
+      <c r="H38" s="149">
         <v>240</v>
       </c>
-      <c r="I38" s="188">
+      <c r="I38" s="149">
         <v>288</v>
       </c>
     </row>
@@ -5070,13 +5078,13 @@
       <c r="F39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="185">
+      <c r="G39" s="146">
         <v>64</v>
       </c>
-      <c r="H39" s="188">
+      <c r="H39" s="149">
         <v>80</v>
       </c>
-      <c r="I39" s="188">
+      <c r="I39" s="149">
         <v>96</v>
       </c>
     </row>
@@ -5093,13 +5101,13 @@
       <c r="F40" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G40" s="185">
+      <c r="G40" s="146">
         <v>152</v>
       </c>
-      <c r="H40" s="188">
+      <c r="H40" s="149">
         <v>190</v>
       </c>
-      <c r="I40" s="188">
+      <c r="I40" s="149">
         <v>228</v>
       </c>
     </row>
@@ -5116,13 +5124,13 @@
       <c r="F41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="185">
+      <c r="G41" s="146">
         <v>4</v>
       </c>
-      <c r="H41" s="188">
+      <c r="H41" s="149">
         <v>5</v>
       </c>
-      <c r="I41" s="188">
+      <c r="I41" s="149">
         <v>6</v>
       </c>
     </row>
@@ -5139,13 +5147,13 @@
       <c r="F42" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="185">
+      <c r="G42" s="146">
         <v>48</v>
       </c>
-      <c r="H42" s="188">
+      <c r="H42" s="149">
         <v>60</v>
       </c>
-      <c r="I42" s="188">
+      <c r="I42" s="149">
         <v>72</v>
       </c>
     </row>
@@ -5162,13 +5170,13 @@
       <c r="F43" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="185">
+      <c r="G43" s="146">
         <v>152</v>
       </c>
-      <c r="H43" s="188">
+      <c r="H43" s="149">
         <v>190</v>
       </c>
-      <c r="I43" s="188">
+      <c r="I43" s="149">
         <v>228</v>
       </c>
     </row>
@@ -5185,13 +5193,13 @@
       <c r="F44" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="185">
+      <c r="G44" s="146">
         <v>32</v>
       </c>
-      <c r="H44" s="188">
+      <c r="H44" s="149">
         <v>40</v>
       </c>
-      <c r="I44" s="188">
+      <c r="I44" s="149">
         <v>48</v>
       </c>
     </row>
@@ -5202,13 +5210,13 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="186">
+      <c r="G45" s="147">
         <v>1684.8</v>
       </c>
-      <c r="H45" s="189">
+      <c r="H45" s="150">
         <v>2106</v>
       </c>
-      <c r="I45" s="189">
+      <c r="I45" s="150">
         <v>2527.1999999999998</v>
       </c>
     </row>
@@ -5238,7 +5246,7 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
@@ -5259,35 +5267,35 @@
       <c r="B3" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="164" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
       <c r="F3" s="36"/>
       <c r="G3" s="35"/>
       <c r="H3" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="161"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
       <c r="G4" s="32"/>
       <c r="H4" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="156"/>
-      <c r="J4" s="157"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" s="27" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6008,11 +6016,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CE7D4C-C230-4995-8D0B-30E4B6C99AA2}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="38"/>
     <col min="2" max="2" width="21" style="38" customWidth="1"/>
@@ -6028,10 +6036,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="166" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="160"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6294,11 +6302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253EF05-0F6C-45E3-AE47-8D997CB8E261}">
   <dimension ref="C3:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="45"/>
     <col min="3" max="3" width="16.42578125" style="45" customWidth="1"/>
@@ -6334,15 +6342,15 @@
       <c r="L4" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="162" t="s">
+      <c r="N4" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="162"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="168"/>
+      <c r="R4" s="168"/>
+      <c r="S4" s="168"/>
+      <c r="T4" s="168"/>
     </row>
     <row r="5" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="51">
@@ -6370,15 +6378,15 @@
       <c r="L5" s="52">
         <v>30</v>
       </c>
-      <c r="N5" s="163" t="s">
+      <c r="N5" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="O5" s="163"/>
-      <c r="P5" s="163"/>
-      <c r="Q5" s="163"/>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C6" s="53">
@@ -6399,13 +6407,13 @@
       <c r="L6" s="60">
         <v>34</v>
       </c>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="170"/>
+      <c r="R6" s="170"/>
+      <c r="S6" s="170"/>
+      <c r="T6" s="170"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C7" s="59">
@@ -6426,13 +6434,13 @@
       <c r="L7" s="58">
         <v>80</v>
       </c>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="170"/>
+      <c r="S7" s="170"/>
+      <c r="T7" s="170"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C8" s="53">
@@ -6453,13 +6461,13 @@
       <c r="L8" s="60">
         <v>97</v>
       </c>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C9" s="59">
@@ -6480,13 +6488,13 @@
       <c r="L9" s="58">
         <v>53</v>
       </c>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="171"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C10" s="53">
@@ -6514,15 +6522,15 @@
       <c r="L10" s="60">
         <v>98</v>
       </c>
-      <c r="N10" s="164" t="s">
+      <c r="N10" s="170" t="s">
         <v>150</v>
       </c>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C11" s="59">
@@ -6543,13 +6551,13 @@
       <c r="L11" s="58">
         <v>82</v>
       </c>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C12" s="53">
@@ -6601,8 +6609,8 @@
       <c r="E14" s="60">
         <v>61</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
       <c r="J14" s="53">
         <v>10</v>
       </c>
@@ -7156,7 +7164,7 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.28515625" style="67" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="67" customWidth="1"/>
@@ -7210,22 +7218,22 @@
       <c r="D5" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="172"/>
-      <c r="G5" s="171" t="s">
+      <c r="F5" s="178"/>
+      <c r="G5" s="177" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="173"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="171" t="s">
+      <c r="H5" s="179"/>
+      <c r="I5" s="178"/>
+      <c r="J5" s="177" t="s">
         <v>193</v>
       </c>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="174"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="180"/>
     </row>
     <row r="6" spans="2:14" s="88" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="98"/>
@@ -7263,7 +7271,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="169">
+      <c r="B7" s="175">
         <v>1</v>
       </c>
       <c r="C7" s="17">
@@ -7300,26 +7308,26 @@
       </c>
     </row>
     <row r="8" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="170"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="168"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="173"/>
+      <c r="G8" s="173"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="173"/>
+      <c r="M8" s="173"/>
+      <c r="N8" s="174"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="169">
+      <c r="B9" s="175">
         <v>2</v>
       </c>
       <c r="C9" s="17">
@@ -7356,26 +7364,26 @@
       </c>
     </row>
     <row r="10" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="170"/>
+      <c r="B10" s="176"/>
       <c r="C10" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="172" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="168"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="173"/>
+      <c r="N10" s="174"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="169">
+      <c r="B11" s="175">
         <v>3</v>
       </c>
       <c r="C11" s="17">
@@ -7412,26 +7420,26 @@
       </c>
     </row>
     <row r="12" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="170"/>
+      <c r="B12" s="176"/>
       <c r="C12" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="D12" s="172" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="168"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="174"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="169">
+      <c r="B13" s="175">
         <v>4</v>
       </c>
       <c r="C13" s="17">
@@ -7468,26 +7476,26 @@
       </c>
     </row>
     <row r="14" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="170"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="172" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="168"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="174"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="169">
+      <c r="B15" s="175">
         <v>5</v>
       </c>
       <c r="C15" s="17">
@@ -7524,26 +7532,26 @@
       </c>
     </row>
     <row r="16" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="170"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="166" t="s">
+      <c r="D16" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="168"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="173"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="174"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="169">
+      <c r="B17" s="175">
         <v>6</v>
       </c>
       <c r="C17" s="17">
@@ -7580,26 +7588,26 @@
       </c>
     </row>
     <row r="18" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="170"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="166" t="s">
+      <c r="D18" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="168"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="174"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="169">
+      <c r="B19" s="175">
         <v>7</v>
       </c>
       <c r="C19" s="17">
@@ -7636,26 +7644,26 @@
       </c>
     </row>
     <row r="20" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="170"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="166" t="s">
+      <c r="D20" s="172" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="168"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="174"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="169">
+      <c r="B21" s="175">
         <v>8</v>
       </c>
       <c r="C21" s="17">
@@ -7692,26 +7700,26 @@
       </c>
     </row>
     <row r="22" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="170"/>
+      <c r="B22" s="176"/>
       <c r="C22" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="166" t="s">
+      <c r="D22" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="168"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="173"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="173"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="174"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="169">
+      <c r="B23" s="175">
         <v>9</v>
       </c>
       <c r="C23" s="17">
@@ -7748,26 +7756,26 @@
       </c>
     </row>
     <row r="24" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="170"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="166" t="s">
+      <c r="D24" s="172" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
-      <c r="M24" s="167"/>
-      <c r="N24" s="168"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="174"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="169">
+      <c r="B25" s="175">
         <v>10</v>
       </c>
       <c r="C25" s="17">
@@ -7804,26 +7812,26 @@
       </c>
     </row>
     <row r="26" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="170"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="168"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="173"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="173"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="173"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="174"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="169">
+      <c r="B27" s="175">
         <v>11</v>
       </c>
       <c r="C27" s="17">
@@ -7860,7 +7868,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="170"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="73" t="s">
         <v>158</v>
       </c>
@@ -7879,7 +7887,7 @@
       <c r="N28" s="84"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="169">
+      <c r="B29" s="175">
         <v>12</v>
       </c>
       <c r="C29" s="17">
@@ -7916,26 +7924,26 @@
       </c>
     </row>
     <row r="30" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="170"/>
+      <c r="B30" s="176"/>
       <c r="C30" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="166" t="s">
+      <c r="D30" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="168"/>
+      <c r="E30" s="173"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="173"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="174"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="169">
+      <c r="B31" s="175">
         <v>13</v>
       </c>
       <c r="C31" s="17">
@@ -7972,26 +7980,26 @@
       </c>
     </row>
     <row r="32" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="170"/>
+      <c r="B32" s="176"/>
       <c r="C32" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="166" t="s">
+      <c r="D32" s="172" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="168"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="173"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="174"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="169">
+      <c r="B33" s="175">
         <v>14</v>
       </c>
       <c r="C33" s="17">
@@ -8028,26 +8036,26 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="170"/>
+      <c r="B34" s="176"/>
       <c r="C34" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="166" t="s">
+      <c r="D34" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="167"/>
-      <c r="N34" s="168"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="173"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="173"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="174"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="169">
+      <c r="B35" s="175">
         <v>15</v>
       </c>
       <c r="C35" s="17">
@@ -8084,26 +8092,26 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="170"/>
+      <c r="B36" s="176"/>
       <c r="C36" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D36" s="166" t="s">
+      <c r="D36" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
-      <c r="M36" s="167"/>
-      <c r="N36" s="168"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="173"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="173"/>
+      <c r="L36" s="173"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="174"/>
     </row>
     <row r="37" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="169">
+      <c r="B37" s="175">
         <v>16</v>
       </c>
       <c r="C37" s="17">
@@ -8140,26 +8148,26 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="170"/>
+      <c r="B38" s="176"/>
       <c r="C38" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="168"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="174"/>
     </row>
     <row r="39" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="169">
+      <c r="B39" s="175">
         <v>17</v>
       </c>
       <c r="C39" s="17">
@@ -8196,26 +8204,26 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="170"/>
+      <c r="B40" s="176"/>
       <c r="C40" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D40" s="166" t="s">
+      <c r="D40" s="172" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
-      <c r="M40" s="167"/>
-      <c r="N40" s="168"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="174"/>
     </row>
     <row r="41" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="169">
+      <c r="B41" s="175">
         <v>18</v>
       </c>
       <c r="C41" s="17">
@@ -8252,26 +8260,26 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="170"/>
+      <c r="B42" s="176"/>
       <c r="C42" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="166" t="s">
+      <c r="D42" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
-      <c r="M42" s="167"/>
-      <c r="N42" s="168"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="174"/>
     </row>
     <row r="43" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="169">
+      <c r="B43" s="175">
         <v>19</v>
       </c>
       <c r="C43" s="17">
@@ -8308,26 +8316,26 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="170"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="166" t="s">
+      <c r="D44" s="172" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
-      <c r="M44" s="167"/>
-      <c r="N44" s="168"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="174"/>
     </row>
     <row r="45" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="169">
+      <c r="B45" s="175">
         <v>20</v>
       </c>
       <c r="C45" s="17">
@@ -8364,26 +8372,26 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="170"/>
+      <c r="B46" s="176"/>
       <c r="C46" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="166" t="s">
+      <c r="D46" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="167"/>
-      <c r="M46" s="167"/>
-      <c r="N46" s="168"/>
+      <c r="E46" s="173"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="173"/>
+      <c r="H46" s="173"/>
+      <c r="I46" s="173"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="173"/>
+      <c r="L46" s="173"/>
+      <c r="M46" s="173"/>
+      <c r="N46" s="174"/>
     </row>
     <row r="47" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="169">
+      <c r="B47" s="175">
         <v>21</v>
       </c>
       <c r="C47" s="17">
@@ -8420,26 +8428,26 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="170"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="166" t="s">
+      <c r="D48" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
-      <c r="M48" s="167"/>
-      <c r="N48" s="168"/>
+      <c r="E48" s="173"/>
+      <c r="F48" s="173"/>
+      <c r="G48" s="173"/>
+      <c r="H48" s="173"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="173"/>
+      <c r="K48" s="173"/>
+      <c r="L48" s="173"/>
+      <c r="M48" s="173"/>
+      <c r="N48" s="174"/>
     </row>
     <row r="49" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="169">
+      <c r="B49" s="175">
         <v>22</v>
       </c>
       <c r="C49" s="17">
@@ -8476,26 +8484,26 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="170"/>
+      <c r="B50" s="176"/>
       <c r="C50" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="166" t="s">
+      <c r="D50" s="172" t="s">
         <v>162</v>
       </c>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
-      <c r="M50" s="167"/>
-      <c r="N50" s="168"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
+      <c r="H50" s="173"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="173"/>
+      <c r="K50" s="173"/>
+      <c r="L50" s="173"/>
+      <c r="M50" s="173"/>
+      <c r="N50" s="174"/>
     </row>
     <row r="51" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="169">
+      <c r="B51" s="175">
         <v>23</v>
       </c>
       <c r="C51" s="17">
@@ -8532,26 +8540,26 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="170"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="166" t="s">
+      <c r="D52" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="167"/>
-      <c r="L52" s="167"/>
-      <c r="M52" s="167"/>
-      <c r="N52" s="168"/>
+      <c r="E52" s="173"/>
+      <c r="F52" s="173"/>
+      <c r="G52" s="173"/>
+      <c r="H52" s="173"/>
+      <c r="I52" s="173"/>
+      <c r="J52" s="173"/>
+      <c r="K52" s="173"/>
+      <c r="L52" s="173"/>
+      <c r="M52" s="173"/>
+      <c r="N52" s="174"/>
     </row>
     <row r="53" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="169">
+      <c r="B53" s="175">
         <v>24</v>
       </c>
       <c r="C53" s="17">
@@ -8588,36 +8596,44 @@
       </c>
     </row>
     <row r="54" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="170"/>
+      <c r="B54" s="176"/>
       <c r="C54" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="166" t="s">
+      <c r="D54" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
-      <c r="M54" s="167"/>
-      <c r="N54" s="168"/>
+      <c r="E54" s="173"/>
+      <c r="F54" s="173"/>
+      <c r="G54" s="173"/>
+      <c r="H54" s="173"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D42:N42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D44:N44"/>
-    <mergeCell ref="D34:N34"/>
-    <mergeCell ref="D38:N38"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="D54:N54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D46:N46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D48:N48"/>
+    <mergeCell ref="D50:N50"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D8:N8"/>
     <mergeCell ref="D12:N12"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B13:B14"/>
@@ -8632,32 +8648,24 @@
     <mergeCell ref="D26:N26"/>
     <mergeCell ref="D30:N30"/>
     <mergeCell ref="D14:N14"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D8:N8"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="D54:N54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D46:N46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D42:N42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D22:N22"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="D40:N40"/>
-    <mergeCell ref="D48:N48"/>
-    <mergeCell ref="D50:N50"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D36:N36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8672,11 +8680,11 @@
   </sheetPr>
   <dimension ref="B2:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="67" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="67" customWidth="1"/>
@@ -8697,7 +8705,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C2" s="144" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="143"/>
@@ -8710,27 +8718,27 @@
         <v>10</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E3" s="67">
         <v>50</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G3" s="67">
         <v>90</v>
       </c>
       <c r="H3" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="J3" s="181" t="s">
-        <v>236</v>
-      </c>
-      <c r="K3" s="181"/>
+        <v>231</v>
+      </c>
+      <c r="J3" s="182" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="182"/>
       <c r="L3" s="68">
         <f>SUM(L14,L21,L28,L35,L42,L49,L56,L68,L74,L62)</f>
-        <v>620</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -8738,19 +8746,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E4" s="67">
         <v>60</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G4" s="67">
         <v>100</v>
       </c>
       <c r="H4" s="140" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -8758,13 +8766,13 @@
         <v>30</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E5" s="67">
         <v>70</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H5" s="140"/>
     </row>
@@ -8773,60 +8781,60 @@
         <v>40</v>
       </c>
       <c r="D6" s="138" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E6" s="138">
         <v>80</v>
       </c>
       <c r="F6" s="138" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G6" s="138"/>
       <c r="H6" s="137"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="135" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
       <c r="G8" s="136"/>
       <c r="H8" s="136" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I8" s="136"/>
       <c r="J8" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="182">
+      <c r="K8" s="186">
         <v>45695</v>
       </c>
-      <c r="L8" s="182"/>
+      <c r="L8" s="186"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="135" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="183" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
+        <v>220</v>
+      </c>
+      <c r="C9" s="187" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
       <c r="G9" s="136"/>
       <c r="H9" s="136"/>
       <c r="I9" s="136"/>
       <c r="J9" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="L9" s="182"/>
+      <c r="K9" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="186"/>
     </row>
     <row r="10" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8849,22 +8857,22 @@
         <v>6</v>
       </c>
       <c r="D12" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F12" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H12" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J12" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L12" s="123" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N12" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -8882,16 +8890,16 @@
         <v>50</v>
       </c>
       <c r="H14" s="119" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J14" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L14" s="119">
         <v>30</v>
       </c>
       <c r="N14" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -8900,22 +8908,22 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="179"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C16" s="183" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="185"/>
     </row>
     <row r="17" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="127"/>
@@ -8952,22 +8960,22 @@
         <v>6</v>
       </c>
       <c r="D19" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H19" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J19" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L19" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N19" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -8982,19 +8990,19 @@
         <v>2</v>
       </c>
       <c r="F21" s="119">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H21" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="J21" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L21" s="119">
         <v>60</v>
       </c>
       <c r="N21" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -9003,22 +9011,22 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="178" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="179"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C23" s="183" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="185"/>
     </row>
     <row r="24" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="127"/>
@@ -9055,22 +9063,22 @@
         <v>6</v>
       </c>
       <c r="D26" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F26" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H26" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J26" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L26" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N26" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -9088,16 +9096,16 @@
         <v>70</v>
       </c>
       <c r="H28" s="119" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J28" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L28" s="119">
         <v>100</v>
       </c>
       <c r="N28" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -9106,22 +9114,22 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="178" t="s">
-        <v>220</v>
-      </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C30" s="183" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="185"/>
     </row>
     <row r="31" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="127"/>
@@ -9158,22 +9166,22 @@
         <v>6</v>
       </c>
       <c r="D33" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F33" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H33" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J33" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L33" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N33" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -9188,19 +9196,19 @@
         <v>4</v>
       </c>
       <c r="F35" s="119">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H35" s="119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J35" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L35" s="119">
         <v>30</v>
       </c>
       <c r="N35" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -9209,22 +9217,22 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="178" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C37" s="183" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="184"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="185"/>
     </row>
     <row r="38" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="127"/>
@@ -9261,22 +9269,22 @@
         <v>6</v>
       </c>
       <c r="D40" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F40" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H40" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J40" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L40" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N40" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -9294,16 +9302,16 @@
         <v>50</v>
       </c>
       <c r="H42" s="119" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J42" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L42" s="119">
         <v>40</v>
       </c>
       <c r="N42" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -9312,22 +9320,22 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C44" s="178" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="179"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="179"/>
-      <c r="M44" s="179"/>
-      <c r="N44" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C44" s="183" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="184"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="184"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="184"/>
+      <c r="J44" s="184"/>
+      <c r="K44" s="184"/>
+      <c r="L44" s="184"/>
+      <c r="M44" s="184"/>
+      <c r="N44" s="185"/>
     </row>
     <row r="45" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="127"/>
@@ -9364,22 +9372,22 @@
         <v>6</v>
       </c>
       <c r="D47" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F47" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H47" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J47" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L47" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N47" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -9397,16 +9405,16 @@
         <v>20</v>
       </c>
       <c r="H49" s="119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J49" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L49" s="119">
         <v>60</v>
       </c>
       <c r="N49" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -9415,22 +9423,22 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C51" s="178" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" s="179"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="179"/>
-      <c r="G51" s="179"/>
-      <c r="H51" s="179"/>
-      <c r="I51" s="179"/>
-      <c r="J51" s="179"/>
-      <c r="K51" s="179"/>
-      <c r="L51" s="179"/>
-      <c r="M51" s="179"/>
-      <c r="N51" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C51" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="184"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="184"/>
+      <c r="I51" s="184"/>
+      <c r="J51" s="184"/>
+      <c r="K51" s="184"/>
+      <c r="L51" s="184"/>
+      <c r="M51" s="184"/>
+      <c r="N51" s="185"/>
     </row>
     <row r="52" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="127"/>
@@ -9467,22 +9475,22 @@
         <v>6</v>
       </c>
       <c r="D54" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F54" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H54" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J54" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L54" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="N54" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -9500,16 +9508,16 @@
         <v>80</v>
       </c>
       <c r="H56" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="J56" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L56" s="119">
         <v>45</v>
       </c>
       <c r="N56" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -9518,22 +9526,22 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C58" s="178" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="179"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="179"/>
-      <c r="K58" s="179"/>
-      <c r="L58" s="179"/>
-      <c r="M58" s="179"/>
-      <c r="N58" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C58" s="183" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="184"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="184"/>
+      <c r="J58" s="184"/>
+      <c r="K58" s="184"/>
+      <c r="L58" s="184"/>
+      <c r="M58" s="184"/>
+      <c r="N58" s="185"/>
     </row>
     <row r="59" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="127"/>
@@ -9556,27 +9564,27 @@
       </c>
       <c r="C60" s="122"/>
       <c r="D60" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E60" s="122"/>
       <c r="F60" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G60" s="122"/>
       <c r="H60" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I60" s="122"/>
       <c r="J60" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K60" s="122"/>
       <c r="L60" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M60" s="122"/>
       <c r="N60" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -9594,16 +9602,16 @@
         <v>60</v>
       </c>
       <c r="H62" s="119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J62" s="119" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="L62" s="119">
         <v>25</v>
       </c>
       <c r="N62" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -9612,10 +9620,10 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="131" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64" s="130" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D64" s="129"/>
       <c r="E64" s="129"/>
@@ -9635,27 +9643,27 @@
       </c>
       <c r="C66" s="122"/>
       <c r="D66" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E66" s="122"/>
       <c r="F66" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G66" s="122"/>
       <c r="H66" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I66" s="122"/>
       <c r="J66" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K66" s="122"/>
       <c r="L66" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M66" s="122"/>
       <c r="N66" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9673,16 +9681,16 @@
         <v>60</v>
       </c>
       <c r="H68" s="119" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J68" s="119" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L68" s="119">
         <v>110</v>
       </c>
       <c r="N68" s="118" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9691,22 +9699,22 @@
     </row>
     <row r="70" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="178" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="179"/>
-      <c r="E70" s="179"/>
-      <c r="F70" s="179"/>
-      <c r="G70" s="179"/>
-      <c r="H70" s="179"/>
-      <c r="I70" s="179"/>
-      <c r="J70" s="179"/>
-      <c r="K70" s="179"/>
-      <c r="L70" s="179"/>
-      <c r="M70" s="179"/>
-      <c r="N70" s="180"/>
+        <v>200</v>
+      </c>
+      <c r="C70" s="183" t="s">
+        <v>207</v>
+      </c>
+      <c r="D70" s="184"/>
+      <c r="E70" s="184"/>
+      <c r="F70" s="184"/>
+      <c r="G70" s="184"/>
+      <c r="H70" s="184"/>
+      <c r="I70" s="184"/>
+      <c r="J70" s="184"/>
+      <c r="K70" s="184"/>
+      <c r="L70" s="184"/>
+      <c r="M70" s="184"/>
+      <c r="N70" s="185"/>
     </row>
     <row r="71" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="127"/>
@@ -9729,27 +9737,27 @@
       </c>
       <c r="C72" s="122"/>
       <c r="D72" s="123" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E72" s="122"/>
       <c r="F72" s="123" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G72" s="122"/>
       <c r="H72" s="123" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I72" s="122"/>
       <c r="J72" s="123" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K72" s="122"/>
       <c r="L72" s="123" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M72" s="122"/>
       <c r="N72" s="121" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
@@ -9764,19 +9772,19 @@
         <v>10</v>
       </c>
       <c r="F74" s="119">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H74" s="119" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="J74" s="119" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="L74" s="119">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="N74" s="118" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9785,22 +9793,22 @@
     </row>
     <row r="76" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="176" t="s">
         <v>200</v>
       </c>
-      <c r="D76" s="176"/>
-      <c r="E76" s="176"/>
-      <c r="F76" s="176"/>
-      <c r="G76" s="176"/>
-      <c r="H76" s="176"/>
-      <c r="I76" s="176"/>
-      <c r="J76" s="176"/>
-      <c r="K76" s="176"/>
-      <c r="L76" s="176"/>
-      <c r="M76" s="176"/>
-      <c r="N76" s="177"/>
+      <c r="C76" s="188" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="188"/>
+      <c r="E76" s="188"/>
+      <c r="F76" s="188"/>
+      <c r="G76" s="188"/>
+      <c r="H76" s="188"/>
+      <c r="I76" s="188"/>
+      <c r="J76" s="188"/>
+      <c r="K76" s="188"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="189"/>
     </row>
     <row r="78" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="114"/>
@@ -9954,18 +9962,18 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="112"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="175"/>
-      <c r="E88" s="175"/>
-      <c r="F88" s="175"/>
-      <c r="G88" s="175"/>
-      <c r="H88" s="175"/>
-      <c r="I88" s="175"/>
-      <c r="J88" s="175"/>
-      <c r="K88" s="175"/>
-      <c r="L88" s="175"/>
-      <c r="M88" s="175"/>
-      <c r="N88" s="175"/>
+      <c r="C88" s="181"/>
+      <c r="D88" s="181"/>
+      <c r="E88" s="181"/>
+      <c r="F88" s="181"/>
+      <c r="G88" s="181"/>
+      <c r="H88" s="181"/>
+      <c r="I88" s="181"/>
+      <c r="J88" s="181"/>
+      <c r="K88" s="181"/>
+      <c r="L88" s="181"/>
+      <c r="M88" s="181"/>
+      <c r="N88" s="181"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="110"/>
@@ -10044,18 +10052,18 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="112"/>
-      <c r="C94" s="175"/>
-      <c r="D94" s="175"/>
-      <c r="E94" s="175"/>
-      <c r="F94" s="175"/>
-      <c r="G94" s="175"/>
-      <c r="H94" s="175"/>
-      <c r="I94" s="175"/>
-      <c r="J94" s="175"/>
-      <c r="K94" s="175"/>
-      <c r="L94" s="175"/>
-      <c r="M94" s="175"/>
-      <c r="N94" s="175"/>
+      <c r="C94" s="181"/>
+      <c r="D94" s="181"/>
+      <c r="E94" s="181"/>
+      <c r="F94" s="181"/>
+      <c r="G94" s="181"/>
+      <c r="H94" s="181"/>
+      <c r="I94" s="181"/>
+      <c r="J94" s="181"/>
+      <c r="K94" s="181"/>
+      <c r="L94" s="181"/>
+      <c r="M94" s="181"/>
+      <c r="N94" s="181"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="110"/>
@@ -10134,18 +10142,18 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="112"/>
-      <c r="C100" s="175"/>
-      <c r="D100" s="175"/>
-      <c r="E100" s="175"/>
-      <c r="F100" s="175"/>
-      <c r="G100" s="175"/>
-      <c r="H100" s="175"/>
-      <c r="I100" s="175"/>
-      <c r="J100" s="175"/>
-      <c r="K100" s="175"/>
-      <c r="L100" s="175"/>
-      <c r="M100" s="175"/>
-      <c r="N100" s="175"/>
+      <c r="C100" s="181"/>
+      <c r="D100" s="181"/>
+      <c r="E100" s="181"/>
+      <c r="F100" s="181"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="181"/>
+      <c r="I100" s="181"/>
+      <c r="J100" s="181"/>
+      <c r="K100" s="181"/>
+      <c r="L100" s="181"/>
+      <c r="M100" s="181"/>
+      <c r="N100" s="181"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="110"/>
@@ -10224,18 +10232,18 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="112"/>
-      <c r="C106" s="175"/>
-      <c r="D106" s="175"/>
-      <c r="E106" s="175"/>
-      <c r="F106" s="175"/>
-      <c r="G106" s="175"/>
-      <c r="H106" s="175"/>
-      <c r="I106" s="175"/>
-      <c r="J106" s="175"/>
-      <c r="K106" s="175"/>
-      <c r="L106" s="175"/>
-      <c r="M106" s="175"/>
-      <c r="N106" s="175"/>
+      <c r="C106" s="181"/>
+      <c r="D106" s="181"/>
+      <c r="E106" s="181"/>
+      <c r="F106" s="181"/>
+      <c r="G106" s="181"/>
+      <c r="H106" s="181"/>
+      <c r="I106" s="181"/>
+      <c r="J106" s="181"/>
+      <c r="K106" s="181"/>
+      <c r="L106" s="181"/>
+      <c r="M106" s="181"/>
+      <c r="N106" s="181"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="110"/>
@@ -10314,18 +10322,18 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="112"/>
-      <c r="C112" s="175"/>
-      <c r="D112" s="175"/>
-      <c r="E112" s="175"/>
-      <c r="F112" s="175"/>
-      <c r="G112" s="175"/>
-      <c r="H112" s="175"/>
-      <c r="I112" s="175"/>
-      <c r="J112" s="175"/>
-      <c r="K112" s="175"/>
-      <c r="L112" s="175"/>
-      <c r="M112" s="175"/>
-      <c r="N112" s="175"/>
+      <c r="C112" s="181"/>
+      <c r="D112" s="181"/>
+      <c r="E112" s="181"/>
+      <c r="F112" s="181"/>
+      <c r="G112" s="181"/>
+      <c r="H112" s="181"/>
+      <c r="I112" s="181"/>
+      <c r="J112" s="181"/>
+      <c r="K112" s="181"/>
+      <c r="L112" s="181"/>
+      <c r="M112" s="181"/>
+      <c r="N112" s="181"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="110"/>
@@ -10404,18 +10412,18 @@
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="112"/>
-      <c r="C118" s="175"/>
-      <c r="D118" s="175"/>
-      <c r="E118" s="175"/>
-      <c r="F118" s="175"/>
-      <c r="G118" s="175"/>
-      <c r="H118" s="175"/>
-      <c r="I118" s="175"/>
-      <c r="J118" s="175"/>
-      <c r="K118" s="175"/>
-      <c r="L118" s="175"/>
-      <c r="M118" s="175"/>
-      <c r="N118" s="175"/>
+      <c r="C118" s="181"/>
+      <c r="D118" s="181"/>
+      <c r="E118" s="181"/>
+      <c r="F118" s="181"/>
+      <c r="G118" s="181"/>
+      <c r="H118" s="181"/>
+      <c r="I118" s="181"/>
+      <c r="J118" s="181"/>
+      <c r="K118" s="181"/>
+      <c r="L118" s="181"/>
+      <c r="M118" s="181"/>
+      <c r="N118" s="181"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="110"/>
@@ -10494,18 +10502,18 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="112"/>
-      <c r="C124" s="175"/>
-      <c r="D124" s="175"/>
-      <c r="E124" s="175"/>
-      <c r="F124" s="175"/>
-      <c r="G124" s="175"/>
-      <c r="H124" s="175"/>
-      <c r="I124" s="175"/>
-      <c r="J124" s="175"/>
-      <c r="K124" s="175"/>
-      <c r="L124" s="175"/>
-      <c r="M124" s="175"/>
-      <c r="N124" s="175"/>
+      <c r="C124" s="181"/>
+      <c r="D124" s="181"/>
+      <c r="E124" s="181"/>
+      <c r="F124" s="181"/>
+      <c r="G124" s="181"/>
+      <c r="H124" s="181"/>
+      <c r="I124" s="181"/>
+      <c r="J124" s="181"/>
+      <c r="K124" s="181"/>
+      <c r="L124" s="181"/>
+      <c r="M124" s="181"/>
+      <c r="N124" s="181"/>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="110"/>
@@ -10584,18 +10592,18 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="112"/>
-      <c r="C130" s="175"/>
-      <c r="D130" s="175"/>
-      <c r="E130" s="175"/>
-      <c r="F130" s="175"/>
-      <c r="G130" s="175"/>
-      <c r="H130" s="175"/>
-      <c r="I130" s="175"/>
-      <c r="J130" s="175"/>
-      <c r="K130" s="175"/>
-      <c r="L130" s="175"/>
-      <c r="M130" s="175"/>
-      <c r="N130" s="175"/>
+      <c r="C130" s="181"/>
+      <c r="D130" s="181"/>
+      <c r="E130" s="181"/>
+      <c r="F130" s="181"/>
+      <c r="G130" s="181"/>
+      <c r="H130" s="181"/>
+      <c r="I130" s="181"/>
+      <c r="J130" s="181"/>
+      <c r="K130" s="181"/>
+      <c r="L130" s="181"/>
+      <c r="M130" s="181"/>
+      <c r="N130" s="181"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="110"/>
@@ -10674,18 +10682,18 @@
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="112"/>
-      <c r="C136" s="175"/>
-      <c r="D136" s="175"/>
-      <c r="E136" s="175"/>
-      <c r="F136" s="175"/>
-      <c r="G136" s="175"/>
-      <c r="H136" s="175"/>
-      <c r="I136" s="175"/>
-      <c r="J136" s="175"/>
-      <c r="K136" s="175"/>
-      <c r="L136" s="175"/>
-      <c r="M136" s="175"/>
-      <c r="N136" s="175"/>
+      <c r="C136" s="181"/>
+      <c r="D136" s="181"/>
+      <c r="E136" s="181"/>
+      <c r="F136" s="181"/>
+      <c r="G136" s="181"/>
+      <c r="H136" s="181"/>
+      <c r="I136" s="181"/>
+      <c r="J136" s="181"/>
+      <c r="K136" s="181"/>
+      <c r="L136" s="181"/>
+      <c r="M136" s="181"/>
+      <c r="N136" s="181"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="110"/>
@@ -10764,18 +10772,18 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="112"/>
-      <c r="C142" s="175"/>
-      <c r="D142" s="175"/>
-      <c r="E142" s="175"/>
-      <c r="F142" s="175"/>
-      <c r="G142" s="175"/>
-      <c r="H142" s="175"/>
-      <c r="I142" s="175"/>
-      <c r="J142" s="175"/>
-      <c r="K142" s="175"/>
-      <c r="L142" s="175"/>
-      <c r="M142" s="175"/>
-      <c r="N142" s="175"/>
+      <c r="C142" s="181"/>
+      <c r="D142" s="181"/>
+      <c r="E142" s="181"/>
+      <c r="F142" s="181"/>
+      <c r="G142" s="181"/>
+      <c r="H142" s="181"/>
+      <c r="I142" s="181"/>
+      <c r="J142" s="181"/>
+      <c r="K142" s="181"/>
+      <c r="L142" s="181"/>
+      <c r="M142" s="181"/>
+      <c r="N142" s="181"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="110"/>
@@ -10854,18 +10862,18 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="112"/>
-      <c r="C148" s="175"/>
-      <c r="D148" s="175"/>
-      <c r="E148" s="175"/>
-      <c r="F148" s="175"/>
-      <c r="G148" s="175"/>
-      <c r="H148" s="175"/>
-      <c r="I148" s="175"/>
-      <c r="J148" s="175"/>
-      <c r="K148" s="175"/>
-      <c r="L148" s="175"/>
-      <c r="M148" s="175"/>
-      <c r="N148" s="175"/>
+      <c r="C148" s="181"/>
+      <c r="D148" s="181"/>
+      <c r="E148" s="181"/>
+      <c r="F148" s="181"/>
+      <c r="G148" s="181"/>
+      <c r="H148" s="181"/>
+      <c r="I148" s="181"/>
+      <c r="J148" s="181"/>
+      <c r="K148" s="181"/>
+      <c r="L148" s="181"/>
+      <c r="M148" s="181"/>
+      <c r="N148" s="181"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="110"/>
@@ -10944,18 +10952,18 @@
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="112"/>
-      <c r="C154" s="175"/>
-      <c r="D154" s="175"/>
-      <c r="E154" s="175"/>
-      <c r="F154" s="175"/>
-      <c r="G154" s="175"/>
-      <c r="H154" s="175"/>
-      <c r="I154" s="175"/>
-      <c r="J154" s="175"/>
-      <c r="K154" s="175"/>
-      <c r="L154" s="175"/>
-      <c r="M154" s="175"/>
-      <c r="N154" s="175"/>
+      <c r="C154" s="181"/>
+      <c r="D154" s="181"/>
+      <c r="E154" s="181"/>
+      <c r="F154" s="181"/>
+      <c r="G154" s="181"/>
+      <c r="H154" s="181"/>
+      <c r="I154" s="181"/>
+      <c r="J154" s="181"/>
+      <c r="K154" s="181"/>
+      <c r="L154" s="181"/>
+      <c r="M154" s="181"/>
+      <c r="N154" s="181"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="110"/>
@@ -11034,18 +11042,18 @@
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="112"/>
-      <c r="C160" s="175"/>
-      <c r="D160" s="175"/>
-      <c r="E160" s="175"/>
-      <c r="F160" s="175"/>
-      <c r="G160" s="175"/>
-      <c r="H160" s="175"/>
-      <c r="I160" s="175"/>
-      <c r="J160" s="175"/>
-      <c r="K160" s="175"/>
-      <c r="L160" s="175"/>
-      <c r="M160" s="175"/>
-      <c r="N160" s="175"/>
+      <c r="C160" s="181"/>
+      <c r="D160" s="181"/>
+      <c r="E160" s="181"/>
+      <c r="F160" s="181"/>
+      <c r="G160" s="181"/>
+      <c r="H160" s="181"/>
+      <c r="I160" s="181"/>
+      <c r="J160" s="181"/>
+      <c r="K160" s="181"/>
+      <c r="L160" s="181"/>
+      <c r="M160" s="181"/>
+      <c r="N160" s="181"/>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="110"/>
@@ -11124,18 +11132,18 @@
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="112"/>
-      <c r="C166" s="175"/>
-      <c r="D166" s="175"/>
-      <c r="E166" s="175"/>
-      <c r="F166" s="175"/>
-      <c r="G166" s="175"/>
-      <c r="H166" s="175"/>
-      <c r="I166" s="175"/>
-      <c r="J166" s="175"/>
-      <c r="K166" s="175"/>
-      <c r="L166" s="175"/>
-      <c r="M166" s="175"/>
-      <c r="N166" s="175"/>
+      <c r="C166" s="181"/>
+      <c r="D166" s="181"/>
+      <c r="E166" s="181"/>
+      <c r="F166" s="181"/>
+      <c r="G166" s="181"/>
+      <c r="H166" s="181"/>
+      <c r="I166" s="181"/>
+      <c r="J166" s="181"/>
+      <c r="K166" s="181"/>
+      <c r="L166" s="181"/>
+      <c r="M166" s="181"/>
+      <c r="N166" s="181"/>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="110"/>
@@ -11244,6 +11252,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="C100:N100"/>
+    <mergeCell ref="C154:N154"/>
+    <mergeCell ref="C160:N160"/>
+    <mergeCell ref="C76:N76"/>
+    <mergeCell ref="C142:N142"/>
+    <mergeCell ref="C148:N148"/>
+    <mergeCell ref="C88:N88"/>
+    <mergeCell ref="C112:N112"/>
+    <mergeCell ref="C118:N118"/>
+    <mergeCell ref="C124:N124"/>
+    <mergeCell ref="C130:N130"/>
     <mergeCell ref="C166:N166"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="C106:N106"/>
@@ -11260,18 +11280,6 @@
     <mergeCell ref="C37:N37"/>
     <mergeCell ref="C136:N136"/>
     <mergeCell ref="C58:N58"/>
-    <mergeCell ref="C94:N94"/>
-    <mergeCell ref="C100:N100"/>
-    <mergeCell ref="C154:N154"/>
-    <mergeCell ref="C160:N160"/>
-    <mergeCell ref="C76:N76"/>
-    <mergeCell ref="C142:N142"/>
-    <mergeCell ref="C148:N148"/>
-    <mergeCell ref="C88:N88"/>
-    <mergeCell ref="C112:N112"/>
-    <mergeCell ref="C118:N118"/>
-    <mergeCell ref="C124:N124"/>
-    <mergeCell ref="C130:N130"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/02_Proyecto/12. Métricas/02_Metricas.xlsx
+++ b/02_Proyecto/12. Métricas/02_Metricas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALMACENAMIENTO\SEPTIMO\ASEG CALIDAD\proyecto\2567_G7_ACSW\02_Proyecto\12. Métricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F618937-0AA9-4AF3-BF07-68C68E12C5EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF4A08-299E-4BF1-9F69-EEE8CEFF0539}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimación 6.2" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Cálculo_Defectos" sheetId="7" r:id="rId6"/>
     <sheet name="CuadernoTrabajo" sheetId="8" r:id="rId7"/>
     <sheet name="Estimación semanal" sheetId="9" r:id="rId8"/>
+    <sheet name="Resumen del plan del proyecto " sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="278">
   <si>
     <t>EL TAMAÑO DEL PRODUCTO</t>
   </si>
@@ -64,10 +65,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dario Morales
-</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -808,12 +805,130 @@
       <t>. Rangos de tamaño de programas</t>
     </r>
   </si>
+  <si>
+    <t>Tabla 15.3 Resumen del plan del proyecto del PSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiantes: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha: </t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Programa #</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ing. Jenny Ruiz</t>
+  </si>
+  <si>
+    <t>Lenguaje</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Hasta la Fecha</t>
+  </si>
+  <si>
+    <t>LOC/Hora</t>
+  </si>
+  <si>
+    <t>Defectos/KLOC</t>
+  </si>
+  <si>
+    <t>Rendimiento</t>
+  </si>
+  <si>
+    <t>V/F</t>
+  </si>
+  <si>
+    <t>Tamaño Programa (LOC)</t>
+  </si>
+  <si>
+    <t>Total Nuevo &amp; Cambiado</t>
+  </si>
+  <si>
+    <t>Tamaño Máximo</t>
+  </si>
+  <si>
+    <t>Tamaño Mínimo</t>
+  </si>
+  <si>
+    <t>Tiempo por Fase (.min)</t>
+  </si>
+  <si>
+    <t>%Hasta la Fecha</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Revisión del código</t>
+  </si>
+  <si>
+    <t>Postmorten</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Tiempo Máximo</t>
+  </si>
+  <si>
+    <t>Tiempo Mínimo</t>
+  </si>
+  <si>
+    <t>Defectos introducidos</t>
+  </si>
+  <si>
+    <t>Def./Hora</t>
+  </si>
+  <si>
+    <t>Defectos eliminados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>George Chicango, Pamela Montenegro, Adrián Ramos</t>
+  </si>
+  <si>
+    <t>Miercoles 12 de febrero del 2025</t>
+  </si>
+  <si>
+    <t>Sistema Gestión de Reservaciones Hotel Cielo Azul</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>Mejora significativa en la calidad del codigo</t>
+  </si>
+  <si>
+    <t>Optimización en correción de errores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ing Jenny Ruiz
+</t>
+  </si>
+  <si>
+    <t>Ing.Jenny Ruiz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -991,8 +1106,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,8 +1206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2001,13 +2130,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2359,6 +2512,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="4" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2425,6 +2581,12 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2443,14 +2605,90 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2674,8 +2912,8 @@
   </sheetPr>
   <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2718,10 +2956,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="155" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>6</v>
       </c>
       <c r="G4" s="158">
         <v>45698</v>
@@ -2730,7 +2968,7 @@
     <row r="5" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B5" s="156"/>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="156"/>
       <c r="E5" s="156"/>
@@ -2740,18 +2978,18 @@
     <row r="6" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B6" s="157"/>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="157"/>
       <c r="E6" s="157"/>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="153"/>
       <c r="D7" s="153"/>
@@ -2761,16 +2999,16 @@
     </row>
     <row r="9" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3485,7 +3723,7 @@
     </row>
     <row r="45" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" ref="D45:E45" si="0">SUM(D10:D44)</f>
@@ -3501,7 +3739,7 @@
     </row>
     <row r="46" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" ref="D46:E46" si="1">GEOMEAN(D10:D44)</f>
@@ -3541,8 +3779,8 @@
   </sheetPr>
   <dimension ref="C1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3565,8 +3803,8 @@
       <c r="F2" s="154"/>
     </row>
     <row r="3" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="191" t="s">
-        <v>240</v>
+      <c r="C3" s="161" t="s">
+        <v>239</v>
       </c>
       <c r="D3" s="153"/>
       <c r="E3" s="153"/>
@@ -3584,11 +3822,11 @@
       <c r="E4" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="226" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="155" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="158">
         <v>45698</v>
@@ -3597,7 +3835,7 @@
     <row r="5" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C5" s="156"/>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
@@ -3607,18 +3845,18 @@
     <row r="6" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C6" s="157"/>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="157"/>
       <c r="F6" s="157"/>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="3:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="153"/>
       <c r="E7" s="153"/>
@@ -3628,19 +3866,19 @@
     </row>
     <row r="9" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3657,7 +3895,7 @@
         <v>0.6</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3674,7 +3912,7 @@
         <v>0.96774193549999998</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3691,7 +3929,7 @@
         <v>0.40540540539999997</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3708,7 +3946,7 @@
         <v>0.40229885059999998</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3725,7 +3963,7 @@
         <v>0.32786885249999997</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3742,7 +3980,7 @@
         <v>0.3921568627</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3759,7 +3997,7 @@
         <v>0.3896103896</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3776,7 +4014,7 @@
         <v>0.55172413789999997</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3793,7 +4031,7 @@
         <v>0.26785714290000001</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3810,7 +4048,7 @@
         <v>0.2459016393</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3827,7 +4065,7 @@
         <v>0.24561403509999999</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3844,7 +4082,7 @@
         <v>0.46666666670000001</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3861,7 +4099,7 @@
         <v>0.68181818179999998</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3878,7 +4116,7 @@
         <v>0.4545454545</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3895,7 +4133,7 @@
         <v>0.71428571429999999</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3912,7 +4150,7 @@
         <v>1.6666666670000001</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3929,7 +4167,7 @@
         <v>0.40983606560000002</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3946,7 +4184,7 @@
         <v>0.4545454545</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3963,7 +4201,7 @@
         <v>1.6666666670000001</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3980,7 +4218,7 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3997,7 +4235,7 @@
         <v>0.81967213110000003</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4014,7 +4252,7 @@
         <v>0.4</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4031,7 +4269,7 @@
         <v>1.538461538</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4048,7 +4286,7 @@
         <v>0.94202898550000003</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4065,7 +4303,7 @@
         <v>0.52631578950000002</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4082,7 +4320,7 @@
         <v>1.1173184359999999</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4099,7 +4337,7 @@
         <v>0.85106382979999995</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4116,7 +4354,7 @@
         <v>0.60975609760000005</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4133,7 +4371,7 @@
         <v>0.75709779180000003</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4150,7 +4388,7 @@
         <v>0.6153846154</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4167,7 +4405,7 @@
         <v>0.753968254</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4184,7 +4422,7 @@
         <v>0.71428571429999999</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4201,7 +4439,7 @@
         <v>0.625</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4218,7 +4456,7 @@
         <v>0.81196581199999995</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4235,19 +4473,19 @@
         <v>0.49382716049999997</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" ref="D45:E45" si="0">SUM(D10:D44)</f>
         <v>2106</v>
       </c>
       <c r="E45" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(E10:E44)</f>
         <v>3047</v>
       </c>
       <c r="F45" s="106">
@@ -4257,7 +4495,7 @@
     </row>
     <row r="46" spans="3:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" ref="D46:E46" si="1">GEOMEAN(D10:D44)</f>
@@ -4298,8 +4536,8 @@
   </sheetPr>
   <dimension ref="C1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4325,7 +4563,7 @@
     </row>
     <row r="3" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="159" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="153"/>
       <c r="E3" s="153"/>
@@ -4343,11 +4581,11 @@
       <c r="E4" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="226" t="s">
+        <v>276</v>
+      </c>
+      <c r="G4" s="155" t="s">
         <v>5</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="158">
         <v>45698</v>
@@ -4356,7 +4594,7 @@
     <row r="5" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C5" s="156"/>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="156"/>
       <c r="F5" s="156"/>
@@ -4366,18 +4604,18 @@
     <row r="6" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C6" s="157"/>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="157"/>
       <c r="F6" s="157"/>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="3:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="153"/>
       <c r="E7" s="153"/>
@@ -4387,25 +4625,25 @@
     </row>
     <row r="9" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4416,10 +4654,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="104">
         <v>12</v>
@@ -4439,10 +4677,10 @@
         <v>31</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="105">
         <v>24</v>
@@ -4462,10 +4700,10 @@
         <v>74</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="105">
         <v>24</v>
@@ -4485,10 +4723,10 @@
         <v>87</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="105">
         <v>28</v>
@@ -4508,10 +4746,10 @@
         <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="105">
         <v>16</v>
@@ -4531,10 +4769,10 @@
         <v>102</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="105">
         <v>32</v>
@@ -4554,10 +4792,10 @@
         <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G16" s="105">
         <v>24</v>
@@ -4577,10 +4815,10 @@
         <v>145</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="105">
         <v>64</v>
@@ -4600,10 +4838,10 @@
         <v>56</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="105">
         <v>12</v>
@@ -4623,10 +4861,10 @@
         <v>61</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G19" s="105">
         <v>12</v>
@@ -4646,10 +4884,10 @@
         <v>57</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" s="105">
         <v>11.2</v>
@@ -4669,10 +4907,10 @@
         <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="105">
         <v>5.6</v>
@@ -4692,10 +4930,10 @@
         <v>110</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G22" s="105">
         <v>60</v>
@@ -4715,10 +4953,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" s="105">
         <v>4</v>
@@ -4738,10 +4976,10 @@
         <v>28</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="105">
         <v>16</v>
@@ -4761,10 +4999,10 @@
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G25" s="105">
         <v>4</v>
@@ -4784,10 +5022,10 @@
         <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" s="105">
         <v>20</v>
@@ -4807,10 +5045,10 @@
         <v>22</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="105">
         <v>8</v>
@@ -4830,10 +5068,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" s="105">
         <v>56</v>
@@ -4853,10 +5091,10 @@
         <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G29" s="105">
         <v>32</v>
@@ -4876,10 +5114,10 @@
         <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G30" s="105">
         <v>40</v>
@@ -4899,10 +5137,10 @@
         <v>50</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G31" s="105">
         <v>16</v>
@@ -4922,10 +5160,10 @@
         <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G32" s="105">
         <v>80</v>
@@ -4945,10 +5183,10 @@
         <v>138</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="105">
         <v>104</v>
@@ -4968,10 +5206,10 @@
         <v>19</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G34" s="105">
         <v>8</v>
@@ -4991,10 +5229,10 @@
         <v>179</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="105">
         <v>160</v>
@@ -5014,10 +5252,10 @@
         <v>188</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G36" s="105">
         <v>128</v>
@@ -5037,10 +5275,10 @@
         <v>82</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G37" s="105">
         <v>40</v>
@@ -5060,10 +5298,10 @@
         <v>317</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G38" s="105">
         <v>192</v>
@@ -5083,10 +5321,10 @@
         <v>130</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="105">
         <v>64</v>
@@ -5106,10 +5344,10 @@
         <v>252</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G40" s="105">
         <v>152</v>
@@ -5129,10 +5367,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="105">
         <v>4</v>
@@ -5152,10 +5390,10 @@
         <v>96</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G42" s="105">
         <v>48</v>
@@ -5175,10 +5413,10 @@
         <v>234</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="105">
         <v>152</v>
@@ -5198,10 +5436,10 @@
         <v>81</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G44" s="105">
         <v>32</v>
@@ -5215,7 +5453,7 @@
     </row>
     <row r="45" spans="3:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -5252,8 +5490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1A6565-C314-430B-A060-81171750593D}">
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5270,71 +5508,71 @@
   <sheetData>
     <row r="2" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
+      <c r="C3" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
       <c r="F3" s="36"/>
       <c r="G3" s="35"/>
       <c r="H3" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="161"/>
-      <c r="J3" s="162"/>
+        <v>116</v>
+      </c>
+      <c r="I3" s="162"/>
+      <c r="J3" s="163"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
+      <c r="C4" s="167" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="32"/>
       <c r="H4" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="163"/>
-      <c r="J4" s="164"/>
+        <v>113</v>
+      </c>
+      <c r="I4" s="164"/>
+      <c r="J4" s="165"/>
     </row>
     <row r="5" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" s="27" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.25" x14ac:dyDescent="0.3">
@@ -5342,7 +5580,7 @@
         <v>45590</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="16">
         <v>0.625</v>
@@ -5354,13 +5592,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="10">
         <v>1</v>
@@ -5381,13 +5619,13 @@
         <v>3</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="26">
         <v>2</v>
@@ -5410,13 +5648,13 @@
         <v>7</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="26">
         <v>1</v>
@@ -5437,13 +5675,13 @@
         <v>4</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J10" s="26">
         <v>2</v>
@@ -5466,13 +5704,13 @@
         <v>6</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J11" s="26">
         <v>2</v>
@@ -5483,7 +5721,7 @@
         <v>45600</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16">
         <v>0.625</v>
@@ -5493,13 +5731,13 @@
         <v>3</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J12" s="26">
         <v>2</v>
@@ -5522,13 +5760,13 @@
         <v>3</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="26">
         <v>2</v>
@@ -5549,13 +5787,13 @@
         <v>2</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="26">
         <v>2</v>
@@ -5576,13 +5814,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15" s="24">
         <v>1</v>
@@ -5605,13 +5843,13 @@
         <v>6</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J16" s="24">
         <v>2</v>
@@ -5622,7 +5860,7 @@
         <v>45607</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="16">
         <v>0.625</v>
@@ -5632,13 +5870,13 @@
         <v>3</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J17" s="12">
         <v>1</v>
@@ -5661,13 +5899,13 @@
         <v>3</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J18" s="12">
         <v>1</v>
@@ -5688,13 +5926,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J19" s="12">
         <v>1</v>
@@ -5715,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J20" s="12">
         <v>2</v>
@@ -5744,13 +5982,13 @@
         <v>6</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J21" s="12">
         <v>2</v>
@@ -5761,10 +5999,10 @@
         <v>45611</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="14">
         <v>1</v>
@@ -5773,13 +6011,13 @@
         <v>5</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="10">
         <v>1</v>
@@ -5790,7 +6028,7 @@
         <v>45614</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="16">
         <v>0.625</v>
@@ -5800,13 +6038,13 @@
         <v>3</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J23" s="12">
         <v>1</v>
@@ -5829,13 +6067,13 @@
         <v>3</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="12">
         <v>1</v>
@@ -5856,13 +6094,13 @@
         <v>2</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J25" s="12">
         <v>2</v>
@@ -5883,13 +6121,13 @@
         <v>2</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J26" s="12">
         <v>2</v>
@@ -5912,13 +6150,13 @@
         <v>6</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J27" s="10">
         <v>1</v>
@@ -5929,10 +6167,10 @@
         <v>45618</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="14">
         <v>1</v>
@@ -5941,13 +6179,13 @@
         <v>5</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J28" s="12">
         <v>2</v>
@@ -5958,23 +6196,23 @@
         <v>45621</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" s="12">
         <v>2</v>
@@ -5985,7 +6223,7 @@
         <v>45621</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="15">
         <v>0.79166666666666663</v>
@@ -5997,13 +6235,13 @@
         <v>4</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J30" s="10">
         <v>1</v>
@@ -6026,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CE7D4C-C230-4995-8D0B-30E4B6C99AA2}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6046,10 +6284,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
-      <c r="B2" s="167" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="167"/>
+      <c r="B2" s="168" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="168"/>
       <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6061,243 +6299,243 @@
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="41"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="41"/>
     </row>
     <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="41"/>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="41"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D12" s="41"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="41"/>
     </row>
     <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="41"/>
       <c r="B15" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="41"/>
       <c r="B16" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D16" s="41"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="41"/>
       <c r="B17" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D17" s="41"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="41"/>
       <c r="B18" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="41"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="41"/>
       <c r="B19" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="41"/>
       <c r="B20" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="41"/>
     </row>
     <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" s="41"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="41"/>
       <c r="B22" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="41"/>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="41"/>
       <c r="B23" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="41"/>
     </row>
     <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="41"/>
       <c r="B24" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="41"/>
     </row>
     <row r="25" spans="1:4" ht="36" x14ac:dyDescent="0.2">
       <c r="B25" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.2">
       <c r="B27" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -6312,8 +6550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253EF05-0F6C-45E3-AE47-8D997CB8E261}">
   <dimension ref="C3:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6335,32 +6573,32 @@
     </row>
     <row r="4" spans="3:20" ht="57" x14ac:dyDescent="0.2">
       <c r="C4" s="65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="K4" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>154</v>
-      </c>
       <c r="L4" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="N4" s="169" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169"/>
+      <c r="N4" s="170" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="170"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
     </row>
     <row r="5" spans="3:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="51">
@@ -6373,7 +6611,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" s="62">
         <f>1000*D40/E40</f>
@@ -6388,15 +6626,15 @@
       <c r="L5" s="52">
         <v>30</v>
       </c>
-      <c r="N5" s="170" t="s">
-        <v>151</v>
-      </c>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
+      <c r="N5" s="171" t="s">
+        <v>150</v>
+      </c>
+      <c r="O5" s="171"/>
+      <c r="P5" s="171"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C6" s="53">
@@ -6417,13 +6655,13 @@
       <c r="L6" s="60">
         <v>34</v>
       </c>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C7" s="59">
@@ -6444,13 +6682,13 @@
       <c r="L7" s="58">
         <v>80</v>
       </c>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
-      <c r="T7" s="171"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C8" s="53">
@@ -6471,13 +6709,13 @@
       <c r="L8" s="60">
         <v>97</v>
       </c>
-      <c r="N8" s="171"/>
-      <c r="O8" s="171"/>
-      <c r="P8" s="171"/>
-      <c r="Q8" s="171"/>
-      <c r="R8" s="171"/>
-      <c r="S8" s="171"/>
-      <c r="T8" s="171"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="172"/>
+      <c r="S8" s="172"/>
+      <c r="T8" s="172"/>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C9" s="59">
@@ -6498,13 +6736,13 @@
       <c r="L9" s="58">
         <v>53</v>
       </c>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
+      <c r="N9" s="173"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="173"/>
+      <c r="T9" s="173"/>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C10" s="53">
@@ -6517,7 +6755,7 @@
         <v>102</v>
       </c>
       <c r="G10" s="61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="61">
         <f>K40+H5/1000</f>
@@ -6532,15 +6770,15 @@
       <c r="L10" s="60">
         <v>98</v>
       </c>
-      <c r="N10" s="171" t="s">
-        <v>149</v>
-      </c>
-      <c r="O10" s="171"/>
-      <c r="P10" s="171"/>
-      <c r="Q10" s="171"/>
-      <c r="R10" s="171"/>
-      <c r="S10" s="171"/>
-      <c r="T10" s="171"/>
+      <c r="N10" s="172" t="s">
+        <v>148</v>
+      </c>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="172"/>
+      <c r="S10" s="172"/>
+      <c r="T10" s="172"/>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C11" s="59">
@@ -6561,13 +6799,13 @@
       <c r="L11" s="58">
         <v>82</v>
       </c>
-      <c r="N11" s="171"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="171"/>
-      <c r="T11" s="171"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="172"/>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C12" s="53">
@@ -6619,8 +6857,8 @@
       <c r="E14" s="60">
         <v>61</v>
       </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
       <c r="J14" s="53">
         <v>10</v>
       </c>
@@ -7133,7 +7371,7 @@
     </row>
     <row r="40" spans="3:12" ht="57" x14ac:dyDescent="0.2">
       <c r="C40" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D40" s="48">
         <f>SUM(D5:D39)</f>
@@ -7144,7 +7382,7 @@
         <v>3047</v>
       </c>
       <c r="J40" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K40" s="46">
         <f>SUM(K5:K39)</f>
@@ -7170,8 +7408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF46AB-03C1-4F88-A5DE-CA2BB1F341F9}">
   <dimension ref="B1:N54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7190,16 +7428,16 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="110" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="114" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="115"/>
       <c r="E3" s="115"/>
@@ -7210,7 +7448,7 @@
       <c r="J3" s="118"/>
       <c r="K3" s="118"/>
       <c r="L3" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M3" s="120">
         <v>45693</v>
@@ -7220,75 +7458,75 @@
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="122" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="178" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="179"/>
-      <c r="G5" s="178" t="s">
         <v>193</v>
       </c>
-      <c r="H5" s="180"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="178" t="s">
+      <c r="E5" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="180"/>
+      <c r="G5" s="179" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="179" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="182"/>
     </row>
     <row r="6" spans="2:14" s="134" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="125"/>
       <c r="C6" s="126"/>
       <c r="D6" s="127"/>
       <c r="E6" s="128" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="130" t="s">
-        <v>191</v>
-      </c>
       <c r="H6" s="131" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="129" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="K6" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="132" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="132" t="s">
-        <v>190</v>
-      </c>
       <c r="L6" s="132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M6" s="131" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N6" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="176">
+      <c r="B7" s="177">
         <v>1</v>
       </c>
       <c r="C7" s="135">
         <v>45590</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="137">
         <v>5</v>
@@ -7322,33 +7560,33 @@
       </c>
     </row>
     <row r="8" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="177"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="173" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D8" s="174" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="176"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="176">
+      <c r="B9" s="177">
         <v>2</v>
       </c>
       <c r="C9" s="135">
         <v>45593</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="137">
         <v>2</v>
@@ -7382,33 +7620,33 @@
       </c>
     </row>
     <row r="10" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="177"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="174"/>
-      <c r="L10" s="174"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D10" s="174" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="176"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="176">
+      <c r="B11" s="177">
         <v>3</v>
       </c>
       <c r="C11" s="135">
         <v>45594</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11" s="137">
         <v>8</v>
@@ -7442,33 +7680,33 @@
       </c>
     </row>
     <row r="12" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="177"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="173" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="174"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D12" s="174" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="176"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="176">
+      <c r="B13" s="177">
         <v>4</v>
       </c>
       <c r="C13" s="135">
         <v>45595</v>
       </c>
       <c r="D13" s="136" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="137">
         <v>5</v>
@@ -7502,33 +7740,33 @@
       </c>
     </row>
     <row r="14" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="177"/>
+      <c r="B14" s="178"/>
       <c r="C14" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="173" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D14" s="174" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="176"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="176">
+      <c r="B15" s="177">
         <v>5</v>
       </c>
       <c r="C15" s="135">
         <v>45597</v>
       </c>
       <c r="D15" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E15" s="137">
         <v>4</v>
@@ -7562,33 +7800,33 @@
       </c>
     </row>
     <row r="16" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="177"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="173" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="174"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="174"/>
-      <c r="M16" s="174"/>
-      <c r="N16" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D16" s="174" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="176">
+      <c r="B17" s="177">
         <v>6</v>
       </c>
       <c r="C17" s="135">
         <v>45600</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="137">
         <v>3</v>
@@ -7622,33 +7860,33 @@
       </c>
     </row>
     <row r="18" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="177"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="173" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D18" s="174" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="176"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="176">
+      <c r="B19" s="177">
         <v>7</v>
       </c>
       <c r="C19" s="135">
         <v>45601</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="137">
         <v>4</v>
@@ -7682,33 +7920,33 @@
       </c>
     </row>
     <row r="20" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="177"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="173" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="174"/>
-      <c r="K20" s="174"/>
-      <c r="L20" s="174"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D20" s="174" t="s">
+        <v>179</v>
+      </c>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="176"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="176">
+      <c r="B21" s="177">
         <v>8</v>
       </c>
       <c r="C21" s="135">
         <v>45602</v>
       </c>
       <c r="D21" s="136" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="137">
         <v>3</v>
@@ -7742,33 +7980,33 @@
       </c>
     </row>
     <row r="22" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="177"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="173" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="174"/>
-      <c r="K22" s="174"/>
-      <c r="L22" s="174"/>
-      <c r="M22" s="174"/>
-      <c r="N22" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D22" s="174" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="176"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="176">
+      <c r="B23" s="177">
         <v>9</v>
       </c>
       <c r="C23" s="135">
         <v>45603</v>
       </c>
       <c r="D23" s="136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="137">
         <v>3</v>
@@ -7802,33 +8040,33 @@
       </c>
     </row>
     <row r="24" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="177"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="173" t="s">
-        <v>178</v>
-      </c>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="174"/>
-      <c r="K24" s="174"/>
-      <c r="L24" s="174"/>
-      <c r="M24" s="174"/>
-      <c r="N24" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D24" s="174" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="176"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="176">
+      <c r="B25" s="177">
         <v>10</v>
       </c>
       <c r="C25" s="135">
         <v>45604</v>
       </c>
       <c r="D25" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E25" s="137">
         <v>5</v>
@@ -7862,33 +8100,33 @@
       </c>
     </row>
     <row r="26" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="177"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="173" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="174"/>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D26" s="174" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="176"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="176">
+      <c r="B27" s="177">
         <v>11</v>
       </c>
       <c r="C27" s="135">
         <v>45607</v>
       </c>
       <c r="D27" s="136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27" s="137">
         <v>6</v>
@@ -7922,12 +8160,12 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="177"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E28" s="147"/>
       <c r="F28" s="147"/>
@@ -7941,14 +8179,14 @@
       <c r="N28" s="151"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="176">
+      <c r="B29" s="177">
         <v>12</v>
       </c>
       <c r="C29" s="135">
         <v>45608</v>
       </c>
       <c r="D29" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E29" s="137">
         <v>5</v>
@@ -7982,33 +8220,33 @@
       </c>
     </row>
     <row r="30" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="177"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="173" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="174"/>
-      <c r="L30" s="174"/>
-      <c r="M30" s="174"/>
-      <c r="N30" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D30" s="174" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="176"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="176">
+      <c r="B31" s="177">
         <v>13</v>
       </c>
       <c r="C31" s="135">
         <v>45609</v>
       </c>
       <c r="D31" s="136" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E31" s="137">
         <v>4</v>
@@ -8042,33 +8280,33 @@
       </c>
     </row>
     <row r="32" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="177"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="173" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="174"/>
-      <c r="M32" s="174"/>
-      <c r="N32" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D32" s="174" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="176"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="176">
+      <c r="B33" s="177">
         <v>14</v>
       </c>
       <c r="C33" s="135">
         <v>45609</v>
       </c>
       <c r="D33" s="136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="137">
         <v>3</v>
@@ -8102,33 +8340,33 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="177"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="173" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="174"/>
-      <c r="L34" s="174"/>
-      <c r="M34" s="174"/>
-      <c r="N34" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D34" s="174" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="176"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="176">
+      <c r="B35" s="177">
         <v>15</v>
       </c>
       <c r="C35" s="135">
         <v>45610</v>
       </c>
       <c r="D35" s="136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E35" s="137">
         <v>5</v>
@@ -8162,33 +8400,33 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="177"/>
+      <c r="B36" s="178"/>
       <c r="C36" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="E36" s="174"/>
-      <c r="F36" s="174"/>
-      <c r="G36" s="174"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="174"/>
-      <c r="L36" s="174"/>
-      <c r="M36" s="174"/>
-      <c r="N36" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D36" s="174" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="176"/>
     </row>
     <row r="37" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="176">
+      <c r="B37" s="177">
         <v>16</v>
       </c>
       <c r="C37" s="135">
         <v>45611</v>
       </c>
       <c r="D37" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E37" s="137">
         <v>4</v>
@@ -8222,33 +8460,33 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="177"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="E38" s="174"/>
-      <c r="F38" s="174"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="174"/>
-      <c r="L38" s="174"/>
-      <c r="M38" s="174"/>
-      <c r="N38" s="175"/>
+      <c r="D38" s="174" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="176"/>
     </row>
     <row r="39" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="176">
+      <c r="B39" s="177">
         <v>17</v>
       </c>
       <c r="C39" s="135">
         <v>45614</v>
       </c>
       <c r="D39" s="136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E39" s="137">
         <v>4</v>
@@ -8282,33 +8520,33 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="177"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="173" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="174"/>
-      <c r="F40" s="174"/>
-      <c r="G40" s="174"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="174"/>
-      <c r="M40" s="174"/>
-      <c r="N40" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D40" s="174" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="175"/>
+      <c r="N40" s="176"/>
     </row>
     <row r="41" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="176">
+      <c r="B41" s="177">
         <v>18</v>
       </c>
       <c r="C41" s="135">
         <v>45615</v>
       </c>
       <c r="D41" s="136" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="137">
         <v>4</v>
@@ -8342,33 +8580,33 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="177"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="173" t="s">
-        <v>168</v>
-      </c>
-      <c r="E42" s="174"/>
-      <c r="F42" s="174"/>
-      <c r="G42" s="174"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="174"/>
-      <c r="L42" s="174"/>
-      <c r="M42" s="174"/>
-      <c r="N42" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D42" s="174" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="175"/>
+      <c r="N42" s="176"/>
     </row>
     <row r="43" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="176">
+      <c r="B43" s="177">
         <v>19</v>
       </c>
       <c r="C43" s="135">
         <v>45616</v>
       </c>
       <c r="D43" s="136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E43" s="137">
         <v>4</v>
@@ -8402,33 +8640,33 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="177"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="173" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="174"/>
-      <c r="F44" s="174"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="174"/>
-      <c r="L44" s="174"/>
-      <c r="M44" s="174"/>
-      <c r="N44" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D44" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="175"/>
+      <c r="M44" s="175"/>
+      <c r="N44" s="176"/>
     </row>
     <row r="45" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="176">
+      <c r="B45" s="177">
         <v>20</v>
       </c>
       <c r="C45" s="135">
         <v>45617</v>
       </c>
       <c r="D45" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E45" s="137">
         <v>3</v>
@@ -8462,33 +8700,33 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="177"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="173" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" s="174"/>
-      <c r="F46" s="174"/>
-      <c r="G46" s="174"/>
-      <c r="H46" s="174"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="174"/>
-      <c r="K46" s="174"/>
-      <c r="L46" s="174"/>
-      <c r="M46" s="174"/>
-      <c r="N46" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D46" s="174" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="175"/>
+      <c r="N46" s="176"/>
     </row>
     <row r="47" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="176">
+      <c r="B47" s="177">
         <v>21</v>
       </c>
       <c r="C47" s="135">
         <v>45618</v>
       </c>
       <c r="D47" s="136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="137">
         <v>8</v>
@@ -8522,33 +8760,33 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="177"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="173" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="174"/>
-      <c r="F48" s="174"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="174"/>
-      <c r="J48" s="174"/>
-      <c r="K48" s="174"/>
-      <c r="L48" s="174"/>
-      <c r="M48" s="174"/>
-      <c r="N48" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D48" s="174" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
+      <c r="L48" s="175"/>
+      <c r="M48" s="175"/>
+      <c r="N48" s="176"/>
     </row>
     <row r="49" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="176">
+      <c r="B49" s="177">
         <v>22</v>
       </c>
       <c r="C49" s="135">
         <v>45618</v>
       </c>
       <c r="D49" s="136" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" s="137">
         <v>6</v>
@@ -8582,33 +8820,33 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="177"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="173" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="174"/>
-      <c r="F50" s="174"/>
-      <c r="G50" s="174"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="174"/>
-      <c r="K50" s="174"/>
-      <c r="L50" s="174"/>
-      <c r="M50" s="174"/>
-      <c r="N50" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D50" s="174" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
+      <c r="L50" s="175"/>
+      <c r="M50" s="175"/>
+      <c r="N50" s="176"/>
     </row>
     <row r="51" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="176">
+      <c r="B51" s="177">
         <v>23</v>
       </c>
       <c r="C51" s="135">
         <v>45621</v>
       </c>
       <c r="D51" s="136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="137">
         <v>2</v>
@@ -8642,33 +8880,33 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="177"/>
+      <c r="B52" s="178"/>
       <c r="C52" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="174"/>
-      <c r="L52" s="174"/>
-      <c r="M52" s="174"/>
-      <c r="N52" s="175"/>
+        <v>156</v>
+      </c>
+      <c r="D52" s="174" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="175"/>
+      <c r="N52" s="176"/>
     </row>
     <row r="53" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="176">
+      <c r="B53" s="177">
         <v>24</v>
       </c>
       <c r="C53" s="135">
         <v>45621</v>
       </c>
       <c r="D53" s="136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E53" s="137">
         <v>5</v>
@@ -8702,44 +8940,42 @@
       </c>
     </row>
     <row r="54" spans="2:14" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="177"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="144" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="174"/>
-      <c r="L54" s="174"/>
-      <c r="M54" s="174"/>
-      <c r="N54" s="175"/>
+      <c r="D54" s="174" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54" s="175"/>
+      <c r="F54" s="175"/>
+      <c r="G54" s="175"/>
+      <c r="H54" s="175"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="175"/>
+      <c r="L54" s="175"/>
+      <c r="M54" s="175"/>
+      <c r="N54" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="D36:N36"/>
-    <mergeCell ref="D52:N52"/>
-    <mergeCell ref="D54:N54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D46:N46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="D48:N48"/>
-    <mergeCell ref="D50:N50"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="D42:N42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="D44:N44"/>
+    <mergeCell ref="D34:N34"/>
+    <mergeCell ref="D38:N38"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D40:N40"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
     <mergeCell ref="D12:N12"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B13:B14"/>
@@ -8756,22 +8992,24 @@
     <mergeCell ref="D14:N14"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="D42:N42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="D44:N44"/>
-    <mergeCell ref="D34:N34"/>
-    <mergeCell ref="D38:N38"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D40:N40"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D36:N36"/>
+    <mergeCell ref="D52:N52"/>
+    <mergeCell ref="D54:N54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="D46:N46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="D48:N48"/>
+    <mergeCell ref="D50:N50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8786,8 +9024,8 @@
   </sheetPr>
   <dimension ref="B2:N173"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -8811,7 +9049,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C2" s="103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D2" s="102"/>
       <c r="E2" s="102"/>
@@ -8824,24 +9062,24 @@
         <v>10</v>
       </c>
       <c r="D3" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="67">
         <v>50</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="67">
         <v>90</v>
       </c>
       <c r="H3" s="99" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="183"/>
+      <c r="J3" s="186" t="s">
+        <v>228</v>
+      </c>
+      <c r="K3" s="186"/>
       <c r="L3" s="68">
         <f>SUM(L14,L21,L28,L35,L42,L49,L56,L68,L74,L62)</f>
         <v>700</v>
@@ -8852,19 +9090,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="67">
         <v>60</v>
       </c>
       <c r="F4" s="67" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G4" s="67">
         <v>100</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -8872,13 +9110,13 @@
         <v>30</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" s="67">
         <v>70</v>
       </c>
       <c r="F5" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="99"/>
     </row>
@@ -8887,60 +9125,60 @@
         <v>40</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="97">
         <v>80</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="97"/>
       <c r="H6" s="96"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="188" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
+        <v>220</v>
+      </c>
+      <c r="C8" s="191" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="95"/>
       <c r="H8" s="95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I8" s="95"/>
       <c r="J8" s="94" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="187">
+        <v>5</v>
+      </c>
+      <c r="K8" s="190">
         <v>45695</v>
       </c>
-      <c r="L8" s="187"/>
+      <c r="L8" s="190"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="188" t="s">
         <v>218</v>
       </c>
-      <c r="D9" s="188"/>
-      <c r="E9" s="188"/>
-      <c r="F9" s="188"/>
+      <c r="C9" s="191" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="95"/>
       <c r="H9" s="95"/>
       <c r="I9" s="95"/>
       <c r="J9" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="187" t="s">
-        <v>234</v>
-      </c>
-      <c r="L9" s="187"/>
+        <v>10</v>
+      </c>
+      <c r="K9" s="190" t="s">
+        <v>233</v>
+      </c>
+      <c r="L9" s="190"/>
     </row>
     <row r="10" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8960,25 +9198,25 @@
     </row>
     <row r="12" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B12" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J12" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L12" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -8996,16 +9234,16 @@
         <v>50</v>
       </c>
       <c r="H14" s="78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J14" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L14" s="78">
         <v>30</v>
       </c>
       <c r="N14" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -9014,22 +9252,22 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="184" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="185"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="185"/>
-      <c r="J16" s="185"/>
-      <c r="K16" s="185"/>
-      <c r="L16" s="185"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C16" s="187" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="189"/>
     </row>
     <row r="17" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="86"/>
@@ -9063,25 +9301,25 @@
     </row>
     <row r="19" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B19" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H19" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J19" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L19" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
@@ -9099,16 +9337,16 @@
         <v>80</v>
       </c>
       <c r="H21" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L21" s="78">
         <v>60</v>
       </c>
       <c r="N21" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -9117,22 +9355,22 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C23" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="185"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="185"/>
-      <c r="J23" s="185"/>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C23" s="187" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
+      <c r="H23" s="188"/>
+      <c r="I23" s="188"/>
+      <c r="J23" s="188"/>
+      <c r="K23" s="188"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="189"/>
     </row>
     <row r="24" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="86"/>
@@ -9166,25 +9404,25 @@
     </row>
     <row r="26" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B26" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F26" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H26" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J26" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L26" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N26" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -9202,16 +9440,16 @@
         <v>70</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J28" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L28" s="78">
         <v>100</v>
       </c>
       <c r="N28" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -9220,22 +9458,22 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="184" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
-      <c r="L30" s="185"/>
-      <c r="M30" s="185"/>
-      <c r="N30" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C30" s="187" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="188"/>
+      <c r="E30" s="188"/>
+      <c r="F30" s="188"/>
+      <c r="G30" s="188"/>
+      <c r="H30" s="188"/>
+      <c r="I30" s="188"/>
+      <c r="J30" s="188"/>
+      <c r="K30" s="188"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="189"/>
     </row>
     <row r="31" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="86"/>
@@ -9269,25 +9507,25 @@
     </row>
     <row r="33" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B33" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H33" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J33" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L33" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N33" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
@@ -9305,16 +9543,16 @@
         <v>60</v>
       </c>
       <c r="H35" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J35" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L35" s="78">
         <v>30</v>
       </c>
       <c r="N35" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
@@ -9323,22 +9561,22 @@
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="184" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="185"/>
-      <c r="E37" s="185"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="185"/>
-      <c r="I37" s="185"/>
-      <c r="J37" s="185"/>
-      <c r="K37" s="185"/>
-      <c r="L37" s="185"/>
-      <c r="M37" s="185"/>
-      <c r="N37" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C37" s="187" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="188"/>
+      <c r="K37" s="188"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="189"/>
     </row>
     <row r="38" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="86"/>
@@ -9372,25 +9610,25 @@
     </row>
     <row r="40" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B40" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H40" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J40" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L40" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N40" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
@@ -9408,16 +9646,16 @@
         <v>50</v>
       </c>
       <c r="H42" s="78" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L42" s="78">
         <v>40</v>
       </c>
       <c r="N42" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -9426,22 +9664,22 @@
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="184" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="185"/>
-      <c r="E44" s="185"/>
-      <c r="F44" s="185"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="185"/>
-      <c r="M44" s="185"/>
-      <c r="N44" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C44" s="187" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="188"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="188"/>
+      <c r="G44" s="188"/>
+      <c r="H44" s="188"/>
+      <c r="I44" s="188"/>
+      <c r="J44" s="188"/>
+      <c r="K44" s="188"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="189"/>
     </row>
     <row r="45" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="86"/>
@@ -9475,25 +9713,25 @@
     </row>
     <row r="47" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B47" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H47" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J47" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L47" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N47" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -9511,16 +9749,16 @@
         <v>20</v>
       </c>
       <c r="H49" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J49" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L49" s="78">
         <v>60</v>
       </c>
       <c r="N49" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -9529,22 +9767,22 @@
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" s="184" t="s">
-        <v>235</v>
-      </c>
-      <c r="D51" s="185"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="185"/>
-      <c r="I51" s="185"/>
-      <c r="J51" s="185"/>
-      <c r="K51" s="185"/>
-      <c r="L51" s="185"/>
-      <c r="M51" s="185"/>
-      <c r="N51" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C51" s="187" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="189"/>
     </row>
     <row r="52" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="86"/>
@@ -9578,25 +9816,25 @@
     </row>
     <row r="54" spans="2:14" s="81" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B54" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H54" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J54" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L54" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N54" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -9614,16 +9852,16 @@
         <v>80</v>
       </c>
       <c r="H56" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J56" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L56" s="78">
         <v>45</v>
       </c>
       <c r="N56" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -9632,22 +9870,22 @@
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C58" s="184" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="185"/>
-      <c r="E58" s="185"/>
-      <c r="F58" s="185"/>
-      <c r="G58" s="185"/>
-      <c r="H58" s="185"/>
-      <c r="I58" s="185"/>
-      <c r="J58" s="185"/>
-      <c r="K58" s="185"/>
-      <c r="L58" s="185"/>
-      <c r="M58" s="185"/>
-      <c r="N58" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C58" s="187" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="188"/>
+      <c r="E58" s="188"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="188"/>
+      <c r="H58" s="188"/>
+      <c r="I58" s="188"/>
+      <c r="J58" s="188"/>
+      <c r="K58" s="188"/>
+      <c r="L58" s="188"/>
+      <c r="M58" s="188"/>
+      <c r="N58" s="189"/>
     </row>
     <row r="59" spans="2:14" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="86"/>
@@ -9666,31 +9904,31 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="81"/>
       <c r="D60" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E60" s="81"/>
       <c r="F60" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G60" s="81"/>
       <c r="H60" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I60" s="81"/>
       <c r="J60" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K60" s="81"/>
       <c r="L60" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M60" s="81"/>
       <c r="N60" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -9708,16 +9946,16 @@
         <v>60</v>
       </c>
       <c r="H62" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J62" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L62" s="78">
         <v>25</v>
       </c>
       <c r="N62" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -9726,10 +9964,10 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C64" s="89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" s="88"/>
       <c r="E64" s="88"/>
@@ -9745,31 +9983,31 @@
     </row>
     <row r="66" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" s="81"/>
       <c r="D66" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E66" s="81"/>
       <c r="F66" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G66" s="81"/>
       <c r="H66" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I66" s="81"/>
       <c r="J66" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K66" s="81"/>
       <c r="L66" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M66" s="81"/>
       <c r="N66" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9787,16 +10025,16 @@
         <v>60</v>
       </c>
       <c r="H68" s="78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J68" s="78" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L68" s="78">
         <v>110</v>
       </c>
       <c r="N68" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9805,22 +10043,22 @@
     </row>
     <row r="70" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="184" t="s">
-        <v>206</v>
-      </c>
-      <c r="D70" s="185"/>
-      <c r="E70" s="185"/>
-      <c r="F70" s="185"/>
-      <c r="G70" s="185"/>
-      <c r="H70" s="185"/>
-      <c r="I70" s="185"/>
-      <c r="J70" s="185"/>
-      <c r="K70" s="185"/>
-      <c r="L70" s="185"/>
-      <c r="M70" s="185"/>
-      <c r="N70" s="186"/>
+        <v>198</v>
+      </c>
+      <c r="C70" s="187" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="188"/>
+      <c r="E70" s="188"/>
+      <c r="F70" s="188"/>
+      <c r="G70" s="188"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="188"/>
+      <c r="J70" s="188"/>
+      <c r="K70" s="188"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="189"/>
     </row>
     <row r="71" spans="2:14" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="86"/>
@@ -9839,31 +10077,31 @@
     </row>
     <row r="72" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" s="81"/>
       <c r="D72" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E72" s="81"/>
       <c r="F72" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G72" s="81"/>
       <c r="H72" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I72" s="81"/>
       <c r="J72" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K72" s="81"/>
       <c r="L72" s="82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M72" s="81"/>
       <c r="N72" s="80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
@@ -9881,16 +10119,16 @@
         <v>100</v>
       </c>
       <c r="H74" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="J74" s="78" t="s">
         <v>238</v>
-      </c>
-      <c r="J74" s="78" t="s">
-        <v>239</v>
       </c>
       <c r="L74" s="78">
         <v>200</v>
       </c>
       <c r="N74" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -9899,22 +10137,22 @@
     </row>
     <row r="76" spans="2:14" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="74" t="s">
-        <v>199</v>
-      </c>
-      <c r="C76" s="189" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="189"/>
-      <c r="E76" s="189"/>
-      <c r="F76" s="189"/>
-      <c r="G76" s="189"/>
-      <c r="H76" s="189"/>
-      <c r="I76" s="189"/>
-      <c r="J76" s="189"/>
-      <c r="K76" s="189"/>
-      <c r="L76" s="189"/>
-      <c r="M76" s="189"/>
-      <c r="N76" s="190"/>
+        <v>198</v>
+      </c>
+      <c r="C76" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="D76" s="184"/>
+      <c r="E76" s="184"/>
+      <c r="F76" s="184"/>
+      <c r="G76" s="184"/>
+      <c r="H76" s="184"/>
+      <c r="I76" s="184"/>
+      <c r="J76" s="184"/>
+      <c r="K76" s="184"/>
+      <c r="L76" s="184"/>
+      <c r="M76" s="184"/>
+      <c r="N76" s="185"/>
     </row>
     <row r="78" spans="2:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="73"/>
@@ -10068,18 +10306,18 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="71"/>
-      <c r="C88" s="182"/>
-      <c r="D88" s="182"/>
-      <c r="E88" s="182"/>
-      <c r="F88" s="182"/>
-      <c r="G88" s="182"/>
-      <c r="H88" s="182"/>
-      <c r="I88" s="182"/>
-      <c r="J88" s="182"/>
-      <c r="K88" s="182"/>
-      <c r="L88" s="182"/>
-      <c r="M88" s="182"/>
-      <c r="N88" s="182"/>
+      <c r="C88" s="183"/>
+      <c r="D88" s="183"/>
+      <c r="E88" s="183"/>
+      <c r="F88" s="183"/>
+      <c r="G88" s="183"/>
+      <c r="H88" s="183"/>
+      <c r="I88" s="183"/>
+      <c r="J88" s="183"/>
+      <c r="K88" s="183"/>
+      <c r="L88" s="183"/>
+      <c r="M88" s="183"/>
+      <c r="N88" s="183"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="69"/>
@@ -10158,18 +10396,18 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="71"/>
-      <c r="C94" s="182"/>
-      <c r="D94" s="182"/>
-      <c r="E94" s="182"/>
-      <c r="F94" s="182"/>
-      <c r="G94" s="182"/>
-      <c r="H94" s="182"/>
-      <c r="I94" s="182"/>
-      <c r="J94" s="182"/>
-      <c r="K94" s="182"/>
-      <c r="L94" s="182"/>
-      <c r="M94" s="182"/>
-      <c r="N94" s="182"/>
+      <c r="C94" s="183"/>
+      <c r="D94" s="183"/>
+      <c r="E94" s="183"/>
+      <c r="F94" s="183"/>
+      <c r="G94" s="183"/>
+      <c r="H94" s="183"/>
+      <c r="I94" s="183"/>
+      <c r="J94" s="183"/>
+      <c r="K94" s="183"/>
+      <c r="L94" s="183"/>
+      <c r="M94" s="183"/>
+      <c r="N94" s="183"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="69"/>
@@ -10248,18 +10486,18 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="71"/>
-      <c r="C100" s="182"/>
-      <c r="D100" s="182"/>
-      <c r="E100" s="182"/>
-      <c r="F100" s="182"/>
-      <c r="G100" s="182"/>
-      <c r="H100" s="182"/>
-      <c r="I100" s="182"/>
-      <c r="J100" s="182"/>
-      <c r="K100" s="182"/>
-      <c r="L100" s="182"/>
-      <c r="M100" s="182"/>
-      <c r="N100" s="182"/>
+      <c r="C100" s="183"/>
+      <c r="D100" s="183"/>
+      <c r="E100" s="183"/>
+      <c r="F100" s="183"/>
+      <c r="G100" s="183"/>
+      <c r="H100" s="183"/>
+      <c r="I100" s="183"/>
+      <c r="J100" s="183"/>
+      <c r="K100" s="183"/>
+      <c r="L100" s="183"/>
+      <c r="M100" s="183"/>
+      <c r="N100" s="183"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="69"/>
@@ -10338,18 +10576,18 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="71"/>
-      <c r="C106" s="182"/>
-      <c r="D106" s="182"/>
-      <c r="E106" s="182"/>
-      <c r="F106" s="182"/>
-      <c r="G106" s="182"/>
-      <c r="H106" s="182"/>
-      <c r="I106" s="182"/>
-      <c r="J106" s="182"/>
-      <c r="K106" s="182"/>
-      <c r="L106" s="182"/>
-      <c r="M106" s="182"/>
-      <c r="N106" s="182"/>
+      <c r="C106" s="183"/>
+      <c r="D106" s="183"/>
+      <c r="E106" s="183"/>
+      <c r="F106" s="183"/>
+      <c r="G106" s="183"/>
+      <c r="H106" s="183"/>
+      <c r="I106" s="183"/>
+      <c r="J106" s="183"/>
+      <c r="K106" s="183"/>
+      <c r="L106" s="183"/>
+      <c r="M106" s="183"/>
+      <c r="N106" s="183"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="69"/>
@@ -10428,18 +10666,18 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="71"/>
-      <c r="C112" s="182"/>
-      <c r="D112" s="182"/>
-      <c r="E112" s="182"/>
-      <c r="F112" s="182"/>
-      <c r="G112" s="182"/>
-      <c r="H112" s="182"/>
-      <c r="I112" s="182"/>
-      <c r="J112" s="182"/>
-      <c r="K112" s="182"/>
-      <c r="L112" s="182"/>
-      <c r="M112" s="182"/>
-      <c r="N112" s="182"/>
+      <c r="C112" s="183"/>
+      <c r="D112" s="183"/>
+      <c r="E112" s="183"/>
+      <c r="F112" s="183"/>
+      <c r="G112" s="183"/>
+      <c r="H112" s="183"/>
+      <c r="I112" s="183"/>
+      <c r="J112" s="183"/>
+      <c r="K112" s="183"/>
+      <c r="L112" s="183"/>
+      <c r="M112" s="183"/>
+      <c r="N112" s="183"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="69"/>
@@ -10518,18 +10756,18 @@
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="71"/>
-      <c r="C118" s="182"/>
-      <c r="D118" s="182"/>
-      <c r="E118" s="182"/>
-      <c r="F118" s="182"/>
-      <c r="G118" s="182"/>
-      <c r="H118" s="182"/>
-      <c r="I118" s="182"/>
-      <c r="J118" s="182"/>
-      <c r="K118" s="182"/>
-      <c r="L118" s="182"/>
-      <c r="M118" s="182"/>
-      <c r="N118" s="182"/>
+      <c r="C118" s="183"/>
+      <c r="D118" s="183"/>
+      <c r="E118" s="183"/>
+      <c r="F118" s="183"/>
+      <c r="G118" s="183"/>
+      <c r="H118" s="183"/>
+      <c r="I118" s="183"/>
+      <c r="J118" s="183"/>
+      <c r="K118" s="183"/>
+      <c r="L118" s="183"/>
+      <c r="M118" s="183"/>
+      <c r="N118" s="183"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="69"/>
@@ -10608,18 +10846,18 @@
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="71"/>
-      <c r="C124" s="182"/>
-      <c r="D124" s="182"/>
-      <c r="E124" s="182"/>
-      <c r="F124" s="182"/>
-      <c r="G124" s="182"/>
-      <c r="H124" s="182"/>
-      <c r="I124" s="182"/>
-      <c r="J124" s="182"/>
-      <c r="K124" s="182"/>
-      <c r="L124" s="182"/>
-      <c r="M124" s="182"/>
-      <c r="N124" s="182"/>
+      <c r="C124" s="183"/>
+      <c r="D124" s="183"/>
+      <c r="E124" s="183"/>
+      <c r="F124" s="183"/>
+      <c r="G124" s="183"/>
+      <c r="H124" s="183"/>
+      <c r="I124" s="183"/>
+      <c r="J124" s="183"/>
+      <c r="K124" s="183"/>
+      <c r="L124" s="183"/>
+      <c r="M124" s="183"/>
+      <c r="N124" s="183"/>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="69"/>
@@ -10698,18 +10936,18 @@
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="71"/>
-      <c r="C130" s="182"/>
-      <c r="D130" s="182"/>
-      <c r="E130" s="182"/>
-      <c r="F130" s="182"/>
-      <c r="G130" s="182"/>
-      <c r="H130" s="182"/>
-      <c r="I130" s="182"/>
-      <c r="J130" s="182"/>
-      <c r="K130" s="182"/>
-      <c r="L130" s="182"/>
-      <c r="M130" s="182"/>
-      <c r="N130" s="182"/>
+      <c r="C130" s="183"/>
+      <c r="D130" s="183"/>
+      <c r="E130" s="183"/>
+      <c r="F130" s="183"/>
+      <c r="G130" s="183"/>
+      <c r="H130" s="183"/>
+      <c r="I130" s="183"/>
+      <c r="J130" s="183"/>
+      <c r="K130" s="183"/>
+      <c r="L130" s="183"/>
+      <c r="M130" s="183"/>
+      <c r="N130" s="183"/>
     </row>
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="69"/>
@@ -10788,18 +11026,18 @@
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="71"/>
-      <c r="C136" s="182"/>
-      <c r="D136" s="182"/>
-      <c r="E136" s="182"/>
-      <c r="F136" s="182"/>
-      <c r="G136" s="182"/>
-      <c r="H136" s="182"/>
-      <c r="I136" s="182"/>
-      <c r="J136" s="182"/>
-      <c r="K136" s="182"/>
-      <c r="L136" s="182"/>
-      <c r="M136" s="182"/>
-      <c r="N136" s="182"/>
+      <c r="C136" s="183"/>
+      <c r="D136" s="183"/>
+      <c r="E136" s="183"/>
+      <c r="F136" s="183"/>
+      <c r="G136" s="183"/>
+      <c r="H136" s="183"/>
+      <c r="I136" s="183"/>
+      <c r="J136" s="183"/>
+      <c r="K136" s="183"/>
+      <c r="L136" s="183"/>
+      <c r="M136" s="183"/>
+      <c r="N136" s="183"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="69"/>
@@ -10878,18 +11116,18 @@
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="71"/>
-      <c r="C142" s="182"/>
-      <c r="D142" s="182"/>
-      <c r="E142" s="182"/>
-      <c r="F142" s="182"/>
-      <c r="G142" s="182"/>
-      <c r="H142" s="182"/>
-      <c r="I142" s="182"/>
-      <c r="J142" s="182"/>
-      <c r="K142" s="182"/>
-      <c r="L142" s="182"/>
-      <c r="M142" s="182"/>
-      <c r="N142" s="182"/>
+      <c r="C142" s="183"/>
+      <c r="D142" s="183"/>
+      <c r="E142" s="183"/>
+      <c r="F142" s="183"/>
+      <c r="G142" s="183"/>
+      <c r="H142" s="183"/>
+      <c r="I142" s="183"/>
+      <c r="J142" s="183"/>
+      <c r="K142" s="183"/>
+      <c r="L142" s="183"/>
+      <c r="M142" s="183"/>
+      <c r="N142" s="183"/>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="69"/>
@@ -10968,18 +11206,18 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="71"/>
-      <c r="C148" s="182"/>
-      <c r="D148" s="182"/>
-      <c r="E148" s="182"/>
-      <c r="F148" s="182"/>
-      <c r="G148" s="182"/>
-      <c r="H148" s="182"/>
-      <c r="I148" s="182"/>
-      <c r="J148" s="182"/>
-      <c r="K148" s="182"/>
-      <c r="L148" s="182"/>
-      <c r="M148" s="182"/>
-      <c r="N148" s="182"/>
+      <c r="C148" s="183"/>
+      <c r="D148" s="183"/>
+      <c r="E148" s="183"/>
+      <c r="F148" s="183"/>
+      <c r="G148" s="183"/>
+      <c r="H148" s="183"/>
+      <c r="I148" s="183"/>
+      <c r="J148" s="183"/>
+      <c r="K148" s="183"/>
+      <c r="L148" s="183"/>
+      <c r="M148" s="183"/>
+      <c r="N148" s="183"/>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="69"/>
@@ -11058,18 +11296,18 @@
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="71"/>
-      <c r="C154" s="182"/>
-      <c r="D154" s="182"/>
-      <c r="E154" s="182"/>
-      <c r="F154" s="182"/>
-      <c r="G154" s="182"/>
-      <c r="H154" s="182"/>
-      <c r="I154" s="182"/>
-      <c r="J154" s="182"/>
-      <c r="K154" s="182"/>
-      <c r="L154" s="182"/>
-      <c r="M154" s="182"/>
-      <c r="N154" s="182"/>
+      <c r="C154" s="183"/>
+      <c r="D154" s="183"/>
+      <c r="E154" s="183"/>
+      <c r="F154" s="183"/>
+      <c r="G154" s="183"/>
+      <c r="H154" s="183"/>
+      <c r="I154" s="183"/>
+      <c r="J154" s="183"/>
+      <c r="K154" s="183"/>
+      <c r="L154" s="183"/>
+      <c r="M154" s="183"/>
+      <c r="N154" s="183"/>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="69"/>
@@ -11148,18 +11386,18 @@
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="71"/>
-      <c r="C160" s="182"/>
-      <c r="D160" s="182"/>
-      <c r="E160" s="182"/>
-      <c r="F160" s="182"/>
-      <c r="G160" s="182"/>
-      <c r="H160" s="182"/>
-      <c r="I160" s="182"/>
-      <c r="J160" s="182"/>
-      <c r="K160" s="182"/>
-      <c r="L160" s="182"/>
-      <c r="M160" s="182"/>
-      <c r="N160" s="182"/>
+      <c r="C160" s="183"/>
+      <c r="D160" s="183"/>
+      <c r="E160" s="183"/>
+      <c r="F160" s="183"/>
+      <c r="G160" s="183"/>
+      <c r="H160" s="183"/>
+      <c r="I160" s="183"/>
+      <c r="J160" s="183"/>
+      <c r="K160" s="183"/>
+      <c r="L160" s="183"/>
+      <c r="M160" s="183"/>
+      <c r="N160" s="183"/>
     </row>
     <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="69"/>
@@ -11238,18 +11476,18 @@
     </row>
     <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="71"/>
-      <c r="C166" s="182"/>
-      <c r="D166" s="182"/>
-      <c r="E166" s="182"/>
-      <c r="F166" s="182"/>
-      <c r="G166" s="182"/>
-      <c r="H166" s="182"/>
-      <c r="I166" s="182"/>
-      <c r="J166" s="182"/>
-      <c r="K166" s="182"/>
-      <c r="L166" s="182"/>
-      <c r="M166" s="182"/>
-      <c r="N166" s="182"/>
+      <c r="C166" s="183"/>
+      <c r="D166" s="183"/>
+      <c r="E166" s="183"/>
+      <c r="F166" s="183"/>
+      <c r="G166" s="183"/>
+      <c r="H166" s="183"/>
+      <c r="I166" s="183"/>
+      <c r="J166" s="183"/>
+      <c r="K166" s="183"/>
+      <c r="L166" s="183"/>
+      <c r="M166" s="183"/>
+      <c r="N166" s="183"/>
     </row>
     <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="69"/>
@@ -11358,18 +11596,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C94:N94"/>
-    <mergeCell ref="C100:N100"/>
-    <mergeCell ref="C154:N154"/>
-    <mergeCell ref="C160:N160"/>
-    <mergeCell ref="C76:N76"/>
-    <mergeCell ref="C142:N142"/>
-    <mergeCell ref="C148:N148"/>
-    <mergeCell ref="C88:N88"/>
-    <mergeCell ref="C112:N112"/>
-    <mergeCell ref="C118:N118"/>
-    <mergeCell ref="C124:N124"/>
-    <mergeCell ref="C130:N130"/>
     <mergeCell ref="C166:N166"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="C106:N106"/>
@@ -11386,9 +11612,1302 @@
     <mergeCell ref="C37:N37"/>
     <mergeCell ref="C136:N136"/>
     <mergeCell ref="C58:N58"/>
+    <mergeCell ref="C94:N94"/>
+    <mergeCell ref="C100:N100"/>
+    <mergeCell ref="C154:N154"/>
+    <mergeCell ref="C160:N160"/>
+    <mergeCell ref="C76:N76"/>
+    <mergeCell ref="C142:N142"/>
+    <mergeCell ref="C148:N148"/>
+    <mergeCell ref="C88:N88"/>
+    <mergeCell ref="C112:N112"/>
+    <mergeCell ref="C118:N118"/>
+    <mergeCell ref="C124:N124"/>
+    <mergeCell ref="C130:N130"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F19D482-8E88-47E3-9071-D7033DF1BFEF}">
+  <dimension ref="B2:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="203" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+    </row>
+    <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="205" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="206"/>
+      <c r="D4" s="200" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="207" t="s">
+        <v>242</v>
+      </c>
+      <c r="I4" s="201" t="s">
+        <v>271</v>
+      </c>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+      <c r="M4" s="195"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="205" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="206"/>
+      <c r="D5" s="202" t="s">
+        <v>272</v>
+      </c>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="207" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" s="194">
+        <v>1</v>
+      </c>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="195"/>
+    </row>
+    <row r="6" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="205" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="206"/>
+      <c r="D6" s="196" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="207" t="s">
+        <v>246</v>
+      </c>
+      <c r="I6" s="201" t="s">
+        <v>273</v>
+      </c>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+      <c r="M6" s="195"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+      <c r="M7" s="192"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="213" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="213"/>
+      <c r="D8" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="214"/>
+      <c r="I8" s="214"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" s="216"/>
+      <c r="M8" s="217"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="208"/>
+      <c r="C9" s="209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="197">
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="197">
+        <v>0.59130000000000005</v>
+      </c>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="197">
+        <v>0.61</v>
+      </c>
+      <c r="L9" s="198"/>
+      <c r="M9" s="199"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="208"/>
+      <c r="C10" s="209" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="197">
+        <f>60/D9</f>
+        <v>100</v>
+      </c>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="223">
+        <f>60/G9</f>
+        <v>101.47133434804667</v>
+      </c>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="225"/>
+      <c r="K10" s="223">
+        <f>60/K9</f>
+        <v>98.360655737704917</v>
+      </c>
+      <c r="L10" s="224"/>
+      <c r="M10" s="225"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="208"/>
+      <c r="C11" s="209" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="197">
+        <v>85</v>
+      </c>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="197">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="196">
+        <v>58.08</v>
+      </c>
+      <c r="L11" s="196"/>
+      <c r="M11" s="196"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="208"/>
+      <c r="C12" s="210" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="196"/>
+      <c r="F12" s="196"/>
+      <c r="G12" s="202" t="s">
+        <v>274</v>
+      </c>
+      <c r="H12" s="196"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="196"/>
+      <c r="K12" s="202" t="s">
+        <v>275</v>
+      </c>
+      <c r="L12" s="196"/>
+      <c r="M12" s="196"/>
+    </row>
+    <row r="13" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="208"/>
+      <c r="C13" s="210" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="195"/>
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+    </row>
+    <row r="14" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="218" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="218"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="220"/>
+      <c r="K14" s="220"/>
+      <c r="L14" s="220"/>
+      <c r="M14" s="221"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="208"/>
+      <c r="C15" s="209" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="195">
+        <v>2106</v>
+      </c>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196">
+        <v>1980</v>
+      </c>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196">
+        <v>2050</v>
+      </c>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="211"/>
+      <c r="C16" s="212" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="195">
+        <v>2527</v>
+      </c>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196">
+        <v>2500</v>
+      </c>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196">
+        <v>2520</v>
+      </c>
+      <c r="L16" s="196"/>
+      <c r="M16" s="196"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="211"/>
+      <c r="C17" s="212" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="195">
+        <v>1685</v>
+      </c>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="196"/>
+      <c r="K17" s="196">
+        <v>1650</v>
+      </c>
+      <c r="L17" s="196"/>
+      <c r="M17" s="196"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="218" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="218"/>
+      <c r="D18" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214" t="s">
+        <v>249</v>
+      </c>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" s="214"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="208"/>
+      <c r="C19" s="209" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="196">
+        <v>50</v>
+      </c>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196">
+        <v>48</v>
+      </c>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196">
+        <v>49</v>
+      </c>
+      <c r="J19" s="196"/>
+      <c r="K19" s="196"/>
+      <c r="L19" s="222">
+        <f>+(I19/$D$26)*100</f>
+        <v>3.6296296296296298</v>
+      </c>
+      <c r="M19" s="222"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="211"/>
+      <c r="C20" s="212" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="196">
+        <v>160</v>
+      </c>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196">
+        <v>155</v>
+      </c>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196">
+        <v>158</v>
+      </c>
+      <c r="J20" s="196"/>
+      <c r="K20" s="196"/>
+      <c r="L20" s="222">
+        <f>+(I20/$D$26)*100</f>
+        <v>11.703703703703704</v>
+      </c>
+      <c r="M20" s="222"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="211"/>
+      <c r="C21" s="212" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="196">
+        <v>600</v>
+      </c>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196">
+        <v>580</v>
+      </c>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196">
+        <v>590</v>
+      </c>
+      <c r="J21" s="196"/>
+      <c r="K21" s="196"/>
+      <c r="L21" s="222">
+        <f>+(I21/$D$26)*100</f>
+        <v>43.703703703703702</v>
+      </c>
+      <c r="M21" s="222"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="211"/>
+      <c r="C22" s="212" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="196">
+        <v>120</v>
+      </c>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196">
+        <v>115</v>
+      </c>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196">
+        <v>118</v>
+      </c>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="222">
+        <f>+(I22/$D$26)*100</f>
+        <v>8.7407407407407405</v>
+      </c>
+      <c r="M22" s="222"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="211"/>
+      <c r="C23" s="212" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="196">
+        <v>110</v>
+      </c>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196">
+        <v>105</v>
+      </c>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196">
+        <v>108</v>
+      </c>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="222">
+        <f>+(I23/$D$26)*100</f>
+        <v>8</v>
+      </c>
+      <c r="M23" s="222"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="211"/>
+      <c r="C24" s="212" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="196">
+        <v>180</v>
+      </c>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196">
+        <v>170</v>
+      </c>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196">
+        <v>175</v>
+      </c>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="222">
+        <f>+(I24/$D$26)*100</f>
+        <v>12.962962962962962</v>
+      </c>
+      <c r="M24" s="222"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="211"/>
+      <c r="C25" s="212" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="196">
+        <v>130</v>
+      </c>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196">
+        <v>125</v>
+      </c>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196">
+        <v>128</v>
+      </c>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="222">
+        <f>+(I25/$D$26)*100</f>
+        <v>9.481481481481481</v>
+      </c>
+      <c r="M25" s="222"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="211"/>
+      <c r="C26" s="212" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="196">
+        <f>SUM(D19:E25)</f>
+        <v>1350</v>
+      </c>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196">
+        <v>1293</v>
+      </c>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196">
+        <v>1330</v>
+      </c>
+      <c r="J26" s="196"/>
+      <c r="K26" s="196"/>
+      <c r="L26" s="222">
+        <f>+SUM(L19:M25)</f>
+        <v>98.222222222222214</v>
+      </c>
+      <c r="M26" s="222"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="211"/>
+      <c r="C27" s="212" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="196">
+        <v>1350</v>
+      </c>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196">
+        <v>890</v>
+      </c>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196">
+        <v>880</v>
+      </c>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" s="211"/>
+      <c r="C28" s="212" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="195">
+        <v>900</v>
+      </c>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+    </row>
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="218" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" s="218"/>
+      <c r="D29" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="214"/>
+      <c r="F29" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" s="214"/>
+      <c r="H29" s="214" t="s">
+        <v>249</v>
+      </c>
+      <c r="I29" s="214"/>
+      <c r="J29" s="214" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="214"/>
+      <c r="L29" s="214" t="s">
+        <v>267</v>
+      </c>
+      <c r="M29" s="214"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="208"/>
+      <c r="C30" s="209" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="195">
+        <v>5</v>
+      </c>
+      <c r="E30" s="196"/>
+      <c r="F30" s="194">
+        <v>6</v>
+      </c>
+      <c r="G30" s="195">
+        <v>6</v>
+      </c>
+      <c r="H30" s="194">
+        <v>6</v>
+      </c>
+      <c r="I30" s="195">
+        <v>6</v>
+      </c>
+      <c r="J30" s="222">
+        <f>+(H30/D30)*100</f>
+        <v>120</v>
+      </c>
+      <c r="K30" s="222"/>
+      <c r="L30" s="222">
+        <f>+D30/(D19/60)</f>
+        <v>6</v>
+      </c>
+      <c r="M30" s="222"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="211"/>
+      <c r="C31" s="212" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="195">
+        <v>15</v>
+      </c>
+      <c r="E31" s="196"/>
+      <c r="F31" s="194">
+        <v>14</v>
+      </c>
+      <c r="G31" s="195">
+        <v>14</v>
+      </c>
+      <c r="H31" s="194">
+        <v>2</v>
+      </c>
+      <c r="I31" s="195">
+        <v>14</v>
+      </c>
+      <c r="J31" s="222">
+        <f>+(H31/D31)*100</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K31" s="222"/>
+      <c r="L31" s="222">
+        <f>+D31/(D20/60)</f>
+        <v>5.625</v>
+      </c>
+      <c r="M31" s="222"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="211"/>
+      <c r="C32" s="212" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="195">
+        <v>40</v>
+      </c>
+      <c r="E32" s="196"/>
+      <c r="F32" s="194">
+        <v>38</v>
+      </c>
+      <c r="G32" s="195">
+        <v>38</v>
+      </c>
+      <c r="H32" s="194">
+        <v>2</v>
+      </c>
+      <c r="I32" s="195">
+        <v>39</v>
+      </c>
+      <c r="J32" s="222">
+        <f t="shared" ref="J31:J35" si="0">+(H32/D32)*100</f>
+        <v>5</v>
+      </c>
+      <c r="K32" s="222"/>
+      <c r="L32" s="222">
+        <f>+D32/(D21/60)</f>
+        <v>4</v>
+      </c>
+      <c r="M32" s="222"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="211"/>
+      <c r="C33" s="212" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="195">
+        <v>18</v>
+      </c>
+      <c r="E33" s="196"/>
+      <c r="F33" s="194">
+        <v>19</v>
+      </c>
+      <c r="G33" s="195">
+        <v>19</v>
+      </c>
+      <c r="H33" s="194">
+        <v>19</v>
+      </c>
+      <c r="I33" s="195">
+        <v>18</v>
+      </c>
+      <c r="J33" s="222">
+        <f t="shared" si="0"/>
+        <v>105.55555555555556</v>
+      </c>
+      <c r="K33" s="222"/>
+      <c r="L33" s="222">
+        <f>+D33/(D22/60)</f>
+        <v>9</v>
+      </c>
+      <c r="M33" s="222"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" s="211"/>
+      <c r="C34" s="212" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="195">
+        <v>8</v>
+      </c>
+      <c r="E34" s="196"/>
+      <c r="F34" s="194">
+        <v>7</v>
+      </c>
+      <c r="G34" s="195">
+        <v>7</v>
+      </c>
+      <c r="H34" s="194">
+        <v>1</v>
+      </c>
+      <c r="I34" s="195">
+        <v>7</v>
+      </c>
+      <c r="J34" s="222">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="K34" s="222"/>
+      <c r="L34" s="222">
+        <f>+D34/(D23/60)</f>
+        <v>4.3636363636363642</v>
+      </c>
+      <c r="M34" s="222"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="211"/>
+      <c r="C35" s="212" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="195">
+        <v>14</v>
+      </c>
+      <c r="E35" s="196"/>
+      <c r="F35" s="194">
+        <v>16</v>
+      </c>
+      <c r="G35" s="195">
+        <v>16</v>
+      </c>
+      <c r="H35" s="194">
+        <v>4</v>
+      </c>
+      <c r="I35" s="195">
+        <v>16</v>
+      </c>
+      <c r="J35" s="222">
+        <f>+(H35/D35)*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="K35" s="222"/>
+      <c r="L35" s="222">
+        <f>+D35/(D24/60)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="M35" s="222"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="211"/>
+      <c r="C36" s="212" t="s">
+        <v>263</v>
+      </c>
+      <c r="D36" s="195">
+        <f>SUM(D30:E35)</f>
+        <v>100</v>
+      </c>
+      <c r="E36" s="196"/>
+      <c r="F36" s="194">
+        <f>+SUM(F30:G35)</f>
+        <v>200</v>
+      </c>
+      <c r="G36" s="195">
+        <v>97</v>
+      </c>
+      <c r="H36" s="194">
+        <f>+SUM(H30:I35)</f>
+        <v>134</v>
+      </c>
+      <c r="I36" s="195">
+        <v>98</v>
+      </c>
+      <c r="J36" s="222">
+        <f>SUM(J30:K35)</f>
+        <v>284.96031746031747</v>
+      </c>
+      <c r="K36" s="222"/>
+      <c r="L36" s="222">
+        <f>+SUM(L30:M35)</f>
+        <v>33.655303030303031</v>
+      </c>
+      <c r="M36" s="222"/>
+    </row>
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="218" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="218"/>
+      <c r="D37" s="214" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="214"/>
+      <c r="F37" s="214" t="s">
+        <v>192</v>
+      </c>
+      <c r="G37" s="214"/>
+      <c r="H37" s="214" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="214"/>
+      <c r="J37" s="214" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="214"/>
+      <c r="L37" s="214" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" s="214"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B38" s="208"/>
+      <c r="C38" s="209" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="195">
+        <v>4</v>
+      </c>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196">
+        <v>3</v>
+      </c>
+      <c r="G38" s="196">
+        <v>3</v>
+      </c>
+      <c r="H38" s="196">
+        <v>3</v>
+      </c>
+      <c r="I38" s="196">
+        <v>3</v>
+      </c>
+      <c r="J38" s="222">
+        <f>+(H38/D38)*100</f>
+        <v>75</v>
+      </c>
+      <c r="K38" s="222"/>
+      <c r="L38" s="222">
+        <f>+D38/(D19/60)</f>
+        <v>4.8</v>
+      </c>
+      <c r="M38" s="222"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="211"/>
+      <c r="C39" s="212" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="195">
+        <v>12</v>
+      </c>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196">
+        <v>10</v>
+      </c>
+      <c r="G39" s="196">
+        <v>10</v>
+      </c>
+      <c r="H39" s="196">
+        <v>11</v>
+      </c>
+      <c r="I39" s="196">
+        <v>11</v>
+      </c>
+      <c r="J39" s="222">
+        <f t="shared" ref="J39:J43" si="1">+(H39/D39)*100</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="K39" s="222"/>
+      <c r="L39" s="222">
+        <f>+D39/(D20/60)</f>
+        <v>4.5</v>
+      </c>
+      <c r="M39" s="222"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="211"/>
+      <c r="C40" s="212" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="195">
+        <v>38</v>
+      </c>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196">
+        <v>36</v>
+      </c>
+      <c r="G40" s="196">
+        <v>36</v>
+      </c>
+      <c r="H40" s="196">
+        <v>9</v>
+      </c>
+      <c r="I40" s="196">
+        <v>37</v>
+      </c>
+      <c r="J40" s="222">
+        <f t="shared" si="1"/>
+        <v>23.684210526315788</v>
+      </c>
+      <c r="K40" s="222"/>
+      <c r="L40" s="222">
+        <f>+D40/(D21/60)</f>
+        <v>3.8</v>
+      </c>
+      <c r="M40" s="222"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="211"/>
+      <c r="C41" s="212" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="195">
+        <v>20</v>
+      </c>
+      <c r="E41" s="196"/>
+      <c r="F41" s="196">
+        <v>18</v>
+      </c>
+      <c r="G41" s="196">
+        <v>18</v>
+      </c>
+      <c r="H41" s="196">
+        <v>19</v>
+      </c>
+      <c r="I41" s="196">
+        <v>19</v>
+      </c>
+      <c r="J41" s="222">
+        <f>+(H41/D41)*100</f>
+        <v>95</v>
+      </c>
+      <c r="K41" s="222"/>
+      <c r="L41" s="222">
+        <f t="shared" ref="L39:L42" si="2">+D41/(D22/60)</f>
+        <v>10</v>
+      </c>
+      <c r="M41" s="222"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B42" s="211"/>
+      <c r="C42" s="212" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="195">
+        <v>9</v>
+      </c>
+      <c r="E42" s="196"/>
+      <c r="F42" s="196">
+        <v>8</v>
+      </c>
+      <c r="G42" s="196">
+        <v>8</v>
+      </c>
+      <c r="H42" s="196">
+        <v>8</v>
+      </c>
+      <c r="I42" s="196">
+        <v>8</v>
+      </c>
+      <c r="J42" s="222">
+        <f t="shared" si="1"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="K42" s="222"/>
+      <c r="L42" s="222">
+        <f t="shared" si="2"/>
+        <v>4.9090909090909092</v>
+      </c>
+      <c r="M42" s="222"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B43" s="211"/>
+      <c r="C43" s="212" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="195">
+        <v>17</v>
+      </c>
+      <c r="E43" s="196"/>
+      <c r="F43" s="196">
+        <v>15</v>
+      </c>
+      <c r="G43" s="196">
+        <v>15</v>
+      </c>
+      <c r="H43" s="196">
+        <v>16</v>
+      </c>
+      <c r="I43" s="196">
+        <v>16</v>
+      </c>
+      <c r="J43" s="222">
+        <f>+(H43/D43)*100</f>
+        <v>94.117647058823522</v>
+      </c>
+      <c r="K43" s="222"/>
+      <c r="L43" s="222">
+        <f>+D43/(D24/60)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="M43" s="222"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B44" s="211"/>
+      <c r="C44" s="212" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="195">
+        <f>+SUM(D38:E43)</f>
+        <v>100</v>
+      </c>
+      <c r="E44" s="196"/>
+      <c r="F44" s="196">
+        <f>+SUM(F38:G43)</f>
+        <v>180</v>
+      </c>
+      <c r="G44" s="196">
+        <v>90</v>
+      </c>
+      <c r="H44" s="196">
+        <f>+SUM(H38:I43)</f>
+        <v>160</v>
+      </c>
+      <c r="I44" s="196">
+        <v>94</v>
+      </c>
+      <c r="J44" s="222">
+        <f>+SUM(J38:K43)</f>
+        <v>468.35741314069492</v>
+      </c>
+      <c r="K44" s="222"/>
+      <c r="L44" s="222">
+        <f>+SUM(L38:M43)</f>
+        <v>33.675757575757579</v>
+      </c>
+      <c r="M44" s="222"/>
+    </row>
+  </sheetData>
+  <mergeCells count="165">
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="I6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>